--- a/src/util/ecfa-parser/Songlist.xlsx
+++ b/src/util/ecfa-parser/Songlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\GitHub\ecfa-react\src\util\ecfa-parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67DF48F8-EDD3-44DB-8C0B-2787232ECA94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F85DFE-0382-4884-A29C-52688A0148D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{771CF380-43F9-4460-B83F-E292DCFEC940}"/>
   </bookViews>
@@ -3399,8 +3399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090E9F61-E79C-418F-A754-D98BF653F3B5}">
   <dimension ref="A1:E607"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="135" workbookViewId="0">
-      <selection activeCell="E473" sqref="E473:E478"/>
+    <sheetView tabSelected="1" topLeftCell="A460" zoomScale="135" workbookViewId="0">
+      <selection activeCell="B473" sqref="B473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9803,7 +9803,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="377" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="6" t="s">
         <v>381</v>
       </c>
@@ -11423,7 +11423,7 @@
         <v>476</v>
       </c>
       <c r="B472" s="12">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C472" s="12">
         <v>13</v>

--- a/src/util/ecfa-parser/Songlist.xlsx
+++ b/src/util/ecfa-parser/Songlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\GitHub\ecfa-react\src\util\ecfa-parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6858B4E5-3444-4C1A-B913-1FDC63EB42B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2763E148-CA06-49F4-A971-177705076606}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{771CF380-43F9-4460-B83F-E292DCFEC940}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="1030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="1074">
   <si>
     <t>Rapid Fire (SH 7)</t>
   </si>
@@ -3124,6 +3124,138 @@
   </si>
   <si>
     <t>Vintage Circuit (SX 14)</t>
+  </si>
+  <si>
+    <t>Disconnected Disco (SH)</t>
+  </si>
+  <si>
+    <t>Da Roots (folk mix)</t>
+  </si>
+  <si>
+    <t>Ride the Bass</t>
+  </si>
+  <si>
+    <t>Rom-eo &amp; Juli8</t>
+  </si>
+  <si>
+    <t>Wake Up</t>
+  </si>
+  <si>
+    <t>Vi Sitter I Ventrilo Och Spelar DotA</t>
+  </si>
+  <si>
+    <t>Oasis</t>
+  </si>
+  <si>
+    <t>Soapy Bubble</t>
+  </si>
+  <si>
+    <t>Stop the Music</t>
+  </si>
+  <si>
+    <t>Sweet World</t>
+  </si>
+  <si>
+    <t>Twilight</t>
+  </si>
+  <si>
+    <t>Disconnected Sanxion7 remix</t>
+  </si>
+  <si>
+    <t>Monolith</t>
+  </si>
+  <si>
+    <t>Robotix</t>
+  </si>
+  <si>
+    <t>The Man Crossing The Channel</t>
+  </si>
+  <si>
+    <t>Determinator</t>
+  </si>
+  <si>
+    <t>Euphoria</t>
+  </si>
+  <si>
+    <t>Over The Rave</t>
+  </si>
+  <si>
+    <t>We Met Dat Night</t>
+  </si>
+  <si>
+    <t>Epileptic Crisis</t>
+  </si>
+  <si>
+    <t>Pandemonium</t>
+  </si>
+  <si>
+    <t>Chromatic Blitz</t>
+  </si>
+  <si>
+    <t>Disconnected Disco (SH 8)</t>
+  </si>
+  <si>
+    <t>Da Roots (SX 9)</t>
+  </si>
+  <si>
+    <t>Ride the Bass (SX 9)</t>
+  </si>
+  <si>
+    <t>ROM-eo _ Juli8 (SX 9)</t>
+  </si>
+  <si>
+    <t>Vi Sitter I Ventrilo Och Spelar DotA (SX 9)</t>
+  </si>
+  <si>
+    <t>Wake Up (SX 9)</t>
+  </si>
+  <si>
+    <t>Oasis (SX 10)</t>
+  </si>
+  <si>
+    <t>Soapy Bubble (SX 10)</t>
+  </si>
+  <si>
+    <t>Stop the Music (SX 10)</t>
+  </si>
+  <si>
+    <t>Sweet World (SX 10)</t>
+  </si>
+  <si>
+    <t>Twilight (SX 10)</t>
+  </si>
+  <si>
+    <t>Disconnected (Sanxion7 remix) (SX 11)</t>
+  </si>
+  <si>
+    <t>Monolith (SX 11)</t>
+  </si>
+  <si>
+    <t>Robotix (SX 11)</t>
+  </si>
+  <si>
+    <t>The Man Crossing the Channel (SX 11)</t>
+  </si>
+  <si>
+    <t>We Met Dat Night (SX 12)</t>
+  </si>
+  <si>
+    <t>Epileptic Crisis (SX 13)</t>
+  </si>
+  <si>
+    <t>Pandemonium (SX 13)</t>
+  </si>
+  <si>
+    <t>Chromatic Blitz (SX 14)</t>
+  </si>
+  <si>
+    <t>Determinator (SX 12)</t>
+  </si>
+  <si>
+    <t>Euphoria (SX 12)</t>
+  </si>
+  <si>
+    <t>Over the Rave (SX 12)</t>
   </si>
 </sst>
 </file>
@@ -3180,7 +3312,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3202,6 +3334,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFBF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE4FFE1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3293,7 +3431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3351,6 +3489,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3674,8 +3821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090E9F61-E79C-418F-A754-D98BF653F3B5}">
   <dimension ref="A1:E607"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A502" zoomScale="135" workbookViewId="0">
-      <selection activeCell="E512" sqref="E512"/>
+    <sheetView tabSelected="1" topLeftCell="A520" zoomScale="135" workbookViewId="0">
+      <selection activeCell="E533" sqref="E533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12425,202 +12572,378 @@
       </c>
     </row>
     <row r="515" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A515" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="B515" s="9"/>
-      <c r="C515" s="9"/>
-      <c r="D515" s="9"/>
-      <c r="E515" s="2"/>
+      <c r="A515" s="21" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B515" s="22">
+        <v>391</v>
+      </c>
+      <c r="C515" s="22">
+        <v>0</v>
+      </c>
+      <c r="D515" s="22">
+        <v>5</v>
+      </c>
+      <c r="E515" s="23" t="s">
+        <v>1052</v>
+      </c>
     </row>
     <row r="516" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A516" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="B516" s="9"/>
-      <c r="C516" s="9"/>
-      <c r="D516" s="9"/>
-      <c r="E516" s="2"/>
+      <c r="A516" s="21" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B516" s="22">
+        <v>489</v>
+      </c>
+      <c r="C516" s="22">
+        <v>0</v>
+      </c>
+      <c r="D516" s="22">
+        <v>4</v>
+      </c>
+      <c r="E516" s="23" t="s">
+        <v>1053</v>
+      </c>
     </row>
     <row r="517" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A517" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="B517" s="9"/>
-      <c r="C517" s="9"/>
-      <c r="D517" s="9"/>
-      <c r="E517" s="2"/>
+      <c r="A517" s="21" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B517" s="22">
+        <v>385</v>
+      </c>
+      <c r="C517" s="22">
+        <v>0</v>
+      </c>
+      <c r="D517" s="22">
+        <v>26</v>
+      </c>
+      <c r="E517" s="23" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="518" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A518" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="B518" s="9"/>
-      <c r="C518" s="9"/>
-      <c r="D518" s="9"/>
-      <c r="E518" s="2"/>
+      <c r="A518" s="21" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B518" s="22">
+        <v>459</v>
+      </c>
+      <c r="C518" s="22">
+        <v>0</v>
+      </c>
+      <c r="D518" s="22">
+        <v>41</v>
+      </c>
+      <c r="E518" s="23" t="s">
+        <v>1055</v>
+      </c>
     </row>
     <row r="519" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A519" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="B519" s="9"/>
-      <c r="C519" s="9"/>
-      <c r="D519" s="9"/>
-      <c r="E519" s="2"/>
-    </row>
-    <row r="520" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A520" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="B520" s="9"/>
-      <c r="C520" s="9"/>
-      <c r="D520" s="9"/>
-      <c r="E520" s="2"/>
+      <c r="A519" s="21" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B519" s="22">
+        <v>426</v>
+      </c>
+      <c r="C519" s="22">
+        <v>0</v>
+      </c>
+      <c r="D519" s="22">
+        <v>40</v>
+      </c>
+      <c r="E519" s="23" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A520" s="21" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B520" s="22">
+        <v>391</v>
+      </c>
+      <c r="C520" s="22">
+        <v>4</v>
+      </c>
+      <c r="D520" s="22">
+        <v>4</v>
+      </c>
+      <c r="E520" s="23" t="s">
+        <v>1056</v>
+      </c>
     </row>
     <row r="521" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A521" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="B521" s="9"/>
-      <c r="C521" s="9"/>
-      <c r="D521" s="9"/>
-      <c r="E521" s="2"/>
+      <c r="A521" s="21" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B521" s="22">
+        <v>461</v>
+      </c>
+      <c r="C521" s="22">
+        <v>0</v>
+      </c>
+      <c r="D521" s="22">
+        <v>216</v>
+      </c>
+      <c r="E521" s="23" t="s">
+        <v>1058</v>
+      </c>
     </row>
     <row r="522" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A522" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="B522" s="9"/>
-      <c r="C522" s="9"/>
-      <c r="D522" s="9"/>
-      <c r="E522" s="2"/>
+      <c r="A522" s="21" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B522" s="22">
+        <v>596</v>
+      </c>
+      <c r="C522" s="22">
+        <v>0</v>
+      </c>
+      <c r="D522" s="22">
+        <v>0</v>
+      </c>
+      <c r="E522" s="23" t="s">
+        <v>1059</v>
+      </c>
     </row>
     <row r="523" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A523" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="B523" s="9"/>
-      <c r="C523" s="9"/>
-      <c r="D523" s="9"/>
-      <c r="E523" s="2"/>
+      <c r="A523" s="21" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B523" s="22">
+        <v>504</v>
+      </c>
+      <c r="C523" s="22">
+        <v>2</v>
+      </c>
+      <c r="D523" s="22">
+        <v>55</v>
+      </c>
+      <c r="E523" s="23" t="s">
+        <v>1060</v>
+      </c>
     </row>
     <row r="524" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A524" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="B524" s="9"/>
-      <c r="C524" s="9"/>
-      <c r="D524" s="9"/>
-      <c r="E524" s="2"/>
+      <c r="A524" s="21" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B524" s="22">
+        <v>618</v>
+      </c>
+      <c r="C524" s="22">
+        <v>0</v>
+      </c>
+      <c r="D524" s="22">
+        <v>60</v>
+      </c>
+      <c r="E524" s="23" t="s">
+        <v>1061</v>
+      </c>
     </row>
     <row r="525" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A525" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="B525" s="9"/>
-      <c r="C525" s="9"/>
-      <c r="D525" s="9"/>
-      <c r="E525" s="2"/>
-    </row>
-    <row r="526" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A526" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="B526" s="9"/>
-      <c r="C526" s="9"/>
-      <c r="D526" s="9"/>
-      <c r="E526" s="2"/>
+      <c r="A525" s="21" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B525" s="22">
+        <v>406</v>
+      </c>
+      <c r="C525" s="22">
+        <v>0</v>
+      </c>
+      <c r="D525" s="22">
+        <v>30</v>
+      </c>
+      <c r="E525" s="23" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A526" s="21" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B526" s="22">
+        <v>612</v>
+      </c>
+      <c r="C526" s="22">
+        <v>0</v>
+      </c>
+      <c r="D526" s="22">
+        <v>69</v>
+      </c>
+      <c r="E526" s="23" t="s">
+        <v>1063</v>
+      </c>
     </row>
     <row r="527" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A527" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="B527" s="9"/>
-      <c r="C527" s="9"/>
-      <c r="D527" s="9"/>
-      <c r="E527" s="2"/>
+      <c r="A527" s="21" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B527" s="22">
+        <v>628</v>
+      </c>
+      <c r="C527" s="22">
+        <v>0</v>
+      </c>
+      <c r="D527" s="22">
+        <v>29</v>
+      </c>
+      <c r="E527" s="23" t="s">
+        <v>1064</v>
+      </c>
     </row>
     <row r="528" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A528" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="B528" s="9"/>
-      <c r="C528" s="9"/>
-      <c r="D528" s="9"/>
-      <c r="E528" s="2"/>
-    </row>
-    <row r="529" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A529" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="B529" s="9"/>
-      <c r="C529" s="9"/>
-      <c r="D529" s="9"/>
-      <c r="E529" s="2"/>
+      <c r="A528" s="21" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B528" s="22">
+        <v>592</v>
+      </c>
+      <c r="C528" s="22">
+        <v>0</v>
+      </c>
+      <c r="D528" s="22">
+        <v>47</v>
+      </c>
+      <c r="E528" s="23" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A529" s="21" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B529" s="22">
+        <v>688</v>
+      </c>
+      <c r="C529" s="22">
+        <v>2</v>
+      </c>
+      <c r="D529" s="22">
+        <v>6</v>
+      </c>
+      <c r="E529" s="23" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="530" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A530" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="B530" s="9"/>
-      <c r="C530" s="9"/>
-      <c r="D530" s="9"/>
-      <c r="E530" s="2"/>
+      <c r="A530" s="21" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B530" s="22">
+        <v>622</v>
+      </c>
+      <c r="C530" s="22">
+        <v>0</v>
+      </c>
+      <c r="D530" s="22">
+        <v>4</v>
+      </c>
+      <c r="E530" s="23" t="s">
+        <v>1071</v>
+      </c>
     </row>
     <row r="531" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A531" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="B531" s="9"/>
-      <c r="C531" s="9"/>
-      <c r="D531" s="9"/>
-      <c r="E531" s="2"/>
+      <c r="A531" s="21" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B531" s="22">
+        <v>793</v>
+      </c>
+      <c r="C531" s="22">
+        <v>0</v>
+      </c>
+      <c r="D531" s="22">
+        <v>114</v>
+      </c>
+      <c r="E531" s="23" t="s">
+        <v>1072</v>
+      </c>
     </row>
     <row r="532" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A532" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="B532" s="9"/>
-      <c r="C532" s="9"/>
-      <c r="D532" s="9"/>
-      <c r="E532" s="2"/>
+      <c r="A532" s="21" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B532" s="22">
+        <v>830</v>
+      </c>
+      <c r="C532" s="22">
+        <v>0</v>
+      </c>
+      <c r="D532" s="22">
+        <v>94</v>
+      </c>
+      <c r="E532" s="23" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="533" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A533" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="B533" s="9"/>
-      <c r="C533" s="9"/>
-      <c r="D533" s="9"/>
-      <c r="E533" s="2"/>
+      <c r="A533" s="21" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B533" s="22">
+        <v>592</v>
+      </c>
+      <c r="C533" s="22">
+        <v>0</v>
+      </c>
+      <c r="D533" s="22">
+        <v>20</v>
+      </c>
+      <c r="E533" s="23" t="s">
+        <v>1067</v>
+      </c>
     </row>
     <row r="534" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A534" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="B534" s="9"/>
-      <c r="C534" s="9"/>
-      <c r="D534" s="9"/>
-      <c r="E534" s="2"/>
+      <c r="A534" s="21" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B534" s="22">
+        <v>811</v>
+      </c>
+      <c r="C534" s="22">
+        <v>0</v>
+      </c>
+      <c r="D534" s="22">
+        <v>45</v>
+      </c>
+      <c r="E534" s="23" t="s">
+        <v>1068</v>
+      </c>
     </row>
     <row r="535" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A535" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="B535" s="9"/>
-      <c r="C535" s="9"/>
-      <c r="D535" s="9"/>
-      <c r="E535" s="2"/>
+      <c r="A535" s="21" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B535" s="22">
+        <v>858</v>
+      </c>
+      <c r="C535" s="22">
+        <v>0</v>
+      </c>
+      <c r="D535" s="22">
+        <v>42</v>
+      </c>
+      <c r="E535" s="23" t="s">
+        <v>1069</v>
+      </c>
     </row>
     <row r="536" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A536" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="B536" s="9"/>
-      <c r="C536" s="9"/>
-      <c r="D536" s="9"/>
-      <c r="E536" s="2"/>
+      <c r="A536" s="21" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B536" s="22">
+        <v>851</v>
+      </c>
+      <c r="C536" s="22">
+        <v>2</v>
+      </c>
+      <c r="D536" s="22">
+        <v>33</v>
+      </c>
+      <c r="E536" s="23" t="s">
+        <v>1070</v>
+      </c>
     </row>
     <row r="537" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A537" s="10" t="s">

--- a/src/util/ecfa-parser/Songlist.xlsx
+++ b/src/util/ecfa-parser/Songlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\GitHub\ecfa-react\src\util\ecfa-parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25DFA0B-C100-4A5E-AE1B-B38FAE0A74AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8C3A36-35B6-454F-96C6-5ED69007498C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{771CF380-43F9-4460-B83F-E292DCFEC940}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="1211">
   <si>
     <t>Rapid Fire (SH 7)</t>
   </si>
@@ -3466,13 +3466,214 @@
   </si>
   <si>
     <t>Throne (SX 14)</t>
+  </si>
+  <si>
+    <t>Underwater Regret (SH)</t>
+  </si>
+  <si>
+    <t>Fluxillary (SH)</t>
+  </si>
+  <si>
+    <t>Hakken (SM)</t>
+  </si>
+  <si>
+    <t>Johnny's Got That Funk (SH)</t>
+  </si>
+  <si>
+    <t>Push the Fader (SH)</t>
+  </si>
+  <si>
+    <t>Arcade</t>
+  </si>
+  <si>
+    <t>Multitalents (SM)</t>
+  </si>
+  <si>
+    <t>subtractive (SH)</t>
+  </si>
+  <si>
+    <t>Remix 1</t>
+  </si>
+  <si>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>Bass in Da House</t>
+  </si>
+  <si>
+    <t>Big Phil</t>
+  </si>
+  <si>
+    <t>DeltaMax</t>
+  </si>
+  <si>
+    <t>Fluxillary</t>
+  </si>
+  <si>
+    <t>mavepine</t>
+  </si>
+  <si>
+    <t>Throw your cards down (Nhato remix)</t>
+  </si>
+  <si>
+    <t>Abyss</t>
+  </si>
+  <si>
+    <t>Bassline &amp; Sexy</t>
+  </si>
+  <si>
+    <t>Fracture Ray</t>
+  </si>
+  <si>
+    <t>MASAMUNE</t>
+  </si>
+  <si>
+    <t>Super Reactor</t>
+  </si>
+  <si>
+    <t>Young Killa</t>
+  </si>
+  <si>
+    <t>Harpoon</t>
+  </si>
+  <si>
+    <t>Hysteria</t>
+  </si>
+  <si>
+    <t>imissu My Fine Neko Shot Sunrise</t>
+  </si>
+  <si>
+    <t>Paradoxy (Camellia's "PERPETUAL" remix)</t>
+  </si>
+  <si>
+    <t>Radius</t>
+  </si>
+  <si>
+    <t>Eg0 (SE)</t>
+  </si>
+  <si>
+    <t>GIGA VIOLATE</t>
+  </si>
+  <si>
+    <t>Palpitation</t>
+  </si>
+  <si>
+    <t>Sudden Visitor</t>
+  </si>
+  <si>
+    <t>Super Hyper Miracle Fantasy Parade</t>
+  </si>
+  <si>
+    <t>Windy Windy Wind</t>
+  </si>
+  <si>
+    <t>Underwater Regret (SH 7)</t>
+  </si>
+  <si>
+    <t>Fluxillary (SH 8)</t>
+  </si>
+  <si>
+    <t>Hakken (SM 8)</t>
+  </si>
+  <si>
+    <t>Johnny's Got That Funk (SH 8)</t>
+  </si>
+  <si>
+    <t>Push The Fader (SH 8)</t>
+  </si>
+  <si>
+    <t>Arcade (SX 9)</t>
+  </si>
+  <si>
+    <t>Multitalents (SM 9)</t>
+  </si>
+  <si>
+    <t>subtractive (SH 9)</t>
+  </si>
+  <si>
+    <t>Remix 1 (SX 10)</t>
+  </si>
+  <si>
+    <t>Shoes (Club Fantastic Edit) (SX 10)</t>
+  </si>
+  <si>
+    <t>Bass In Da House (SX 11)</t>
+  </si>
+  <si>
+    <t>Big Phil (SX 11)</t>
+  </si>
+  <si>
+    <t>DeltaMAX (SM 11)</t>
+  </si>
+  <si>
+    <t>Fluxillary (SX 11)</t>
+  </si>
+  <si>
+    <t>mavepine (SX 11)</t>
+  </si>
+  <si>
+    <t>Throw your cards down (Nhato Remix) (SX 11)</t>
+  </si>
+  <si>
+    <t>Abyss (SX 12)</t>
+  </si>
+  <si>
+    <t>Bassline &amp; Sexy (Original Mix) (SX 12)</t>
+  </si>
+  <si>
+    <t>Fracture Ray (SX 12)</t>
+  </si>
+  <si>
+    <t>MASAMUNE (SX 12)</t>
+  </si>
+  <si>
+    <t>SUPER REACTOR (SX 12)</t>
+  </si>
+  <si>
+    <t>Young Killa (SX 12)</t>
+  </si>
+  <si>
+    <t>Harpoon (SX 13)</t>
+  </si>
+  <si>
+    <t>hysteria (SX 13)</t>
+  </si>
+  <si>
+    <t>imissu My Fine Neko Shot Sunrise (SX 13)</t>
+  </si>
+  <si>
+    <t>Paradoxy (Camellia's PERPETUAL Remix) (SX 13)</t>
+  </si>
+  <si>
+    <t>Radius (SX 13)</t>
+  </si>
+  <si>
+    <t>EgO (SE 14)</t>
+  </si>
+  <si>
+    <t>GIGA VIOLATE (SX 14)</t>
+  </si>
+  <si>
+    <t>I (SX 14)</t>
+  </si>
+  <si>
+    <t>Palpitation (SX 14)</t>
+  </si>
+  <si>
+    <t>Sudden Visitor (SX 14)</t>
+  </si>
+  <si>
+    <t>SUPER HYPER MIRACLE FANTASY PARADE (SX 14)</t>
+  </si>
+  <si>
+    <t>Windy Windy Wind (SX 14)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3521,8 +3722,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00FF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3556,6 +3770,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCFEAFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD1FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3647,7 +3873,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3727,6 +3953,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4047,10 +4285,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090E9F61-E79C-418F-A754-D98BF653F3B5}">
-  <dimension ref="A1:E607"/>
+  <dimension ref="A1:E630"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A551" zoomScale="135" workbookViewId="0">
-      <selection activeCell="E567" sqref="E567:E572"/>
+    <sheetView tabSelected="1" topLeftCell="A590" zoomScale="135" workbookViewId="0">
+      <selection activeCell="E600" sqref="E600:E606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13786,319 +14024,775 @@
       </c>
     </row>
     <row r="573" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A573" s="6" t="s">
+      <c r="A573" s="28" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B573" s="29">
+        <v>369</v>
+      </c>
+      <c r="C573" s="29">
+        <v>0</v>
+      </c>
+      <c r="D573" s="29">
+        <v>46</v>
+      </c>
+      <c r="E573" s="28" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A574" s="28" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B574" s="29">
+        <v>333</v>
+      </c>
+      <c r="C574" s="29">
+        <v>8</v>
+      </c>
+      <c r="D574" s="29">
+        <v>33</v>
+      </c>
+      <c r="E574" s="28" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A575" s="28" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B575" s="29">
+        <v>365</v>
+      </c>
+      <c r="C575" s="29">
+        <v>6</v>
+      </c>
+      <c r="D575" s="29">
+        <v>43</v>
+      </c>
+      <c r="E575" s="28" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A576" s="28" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B576" s="29">
+        <v>362</v>
+      </c>
+      <c r="C576" s="29">
+        <v>13</v>
+      </c>
+      <c r="D576" s="29">
+        <v>18</v>
+      </c>
+      <c r="E576" s="28" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A577" s="28" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B577" s="29">
+        <v>454</v>
+      </c>
+      <c r="C577" s="29">
+        <v>1</v>
+      </c>
+      <c r="D577" s="29">
+        <v>40</v>
+      </c>
+      <c r="E577" s="28" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A578" s="28" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B578" s="29">
+        <v>436</v>
+      </c>
+      <c r="C578" s="29">
+        <v>1</v>
+      </c>
+      <c r="D578" s="29">
+        <v>77</v>
+      </c>
+      <c r="E578" s="28" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A579" s="28" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B579" s="29">
+        <v>536</v>
+      </c>
+      <c r="C579" s="29">
+        <v>9</v>
+      </c>
+      <c r="D579" s="29">
+        <v>30</v>
+      </c>
+      <c r="E579" s="28" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A580" s="28" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B580" s="29">
+        <v>579</v>
+      </c>
+      <c r="C580" s="29">
+        <v>13</v>
+      </c>
+      <c r="D580" s="29">
+        <v>21</v>
+      </c>
+      <c r="E580" s="28" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A581" s="28" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B581" s="29">
+        <v>470</v>
+      </c>
+      <c r="C581" s="29">
+        <v>2</v>
+      </c>
+      <c r="D581" s="29">
+        <v>37</v>
+      </c>
+      <c r="E581" s="28" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A582" s="28" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B582" s="29">
+        <v>475</v>
+      </c>
+      <c r="C582" s="29">
+        <v>0</v>
+      </c>
+      <c r="D582" s="29">
+        <v>49</v>
+      </c>
+      <c r="E582" s="28" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A583" s="28" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B583" s="29">
+        <v>605</v>
+      </c>
+      <c r="C583" s="29">
+        <v>4</v>
+      </c>
+      <c r="D583" s="29">
+        <v>80</v>
+      </c>
+      <c r="E583" s="28" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A584" s="28" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B584" s="29">
+        <v>551</v>
+      </c>
+      <c r="C584" s="29">
+        <v>2</v>
+      </c>
+      <c r="D584" s="29">
+        <v>8</v>
+      </c>
+      <c r="E584" s="28" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A585" s="28" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B585" s="29">
+        <v>604</v>
+      </c>
+      <c r="C585" s="29">
+        <v>0</v>
+      </c>
+      <c r="D585" s="29">
+        <v>3</v>
+      </c>
+      <c r="E585" s="28" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A586" s="28" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B586" s="29">
+        <v>510</v>
+      </c>
+      <c r="C586" s="29">
+        <v>6</v>
+      </c>
+      <c r="D586" s="29">
+        <v>46</v>
+      </c>
+      <c r="E586" s="28" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A587" s="28" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B587" s="29">
+        <v>558</v>
+      </c>
+      <c r="C587" s="29">
+        <v>0</v>
+      </c>
+      <c r="D587" s="29">
+        <v>43</v>
+      </c>
+      <c r="E587" s="28" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A588" s="28" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B588" s="29">
+        <v>674</v>
+      </c>
+      <c r="C588" s="29">
+        <v>0</v>
+      </c>
+      <c r="D588" s="29">
+        <v>49</v>
+      </c>
+      <c r="E588" s="28" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A589" s="28" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B589" s="29">
+        <v>783</v>
+      </c>
+      <c r="C589" s="29">
+        <v>2</v>
+      </c>
+      <c r="D589" s="29">
+        <v>94</v>
+      </c>
+      <c r="E589" s="28" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A590" s="28" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B590" s="29">
+        <v>702</v>
+      </c>
+      <c r="C590" s="29">
+        <v>73</v>
+      </c>
+      <c r="D590" s="29">
+        <v>39</v>
+      </c>
+      <c r="E590" s="28" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A591" s="28" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B591" s="29">
+        <v>633</v>
+      </c>
+      <c r="C591" s="29">
+        <v>11</v>
+      </c>
+      <c r="D591" s="29">
+        <v>57</v>
+      </c>
+      <c r="E591" s="28" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A592" s="28" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B592" s="29">
+        <v>805</v>
+      </c>
+      <c r="C592" s="29">
+        <v>1</v>
+      </c>
+      <c r="D592" s="29">
+        <v>34</v>
+      </c>
+      <c r="E592" s="28" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A593" s="28" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B593" s="29">
+        <v>833</v>
+      </c>
+      <c r="C593" s="29">
+        <v>4</v>
+      </c>
+      <c r="D593" s="29">
+        <v>75</v>
+      </c>
+      <c r="E593" s="28" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A594" s="28" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B594" s="29">
+        <v>607</v>
+      </c>
+      <c r="C594" s="29">
+        <v>17</v>
+      </c>
+      <c r="D594" s="29">
+        <v>35</v>
+      </c>
+      <c r="E594" s="28" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A595" s="28" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B595" s="29">
+        <v>826</v>
+      </c>
+      <c r="C595" s="29">
+        <v>0</v>
+      </c>
+      <c r="D595" s="29">
+        <v>14</v>
+      </c>
+      <c r="E595" s="28" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A596" s="28" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B596" s="29">
+        <v>816</v>
+      </c>
+      <c r="C596" s="29">
+        <v>0</v>
+      </c>
+      <c r="D596" s="29">
+        <v>80</v>
+      </c>
+      <c r="E596" s="28" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A597" s="28" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B597" s="29">
+        <v>1601</v>
+      </c>
+      <c r="C597" s="29">
+        <v>6</v>
+      </c>
+      <c r="D597" s="29">
+        <v>48</v>
+      </c>
+      <c r="E597" s="28" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A598" s="28" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B598" s="29">
+        <v>932</v>
+      </c>
+      <c r="C598" s="29">
+        <v>29</v>
+      </c>
+      <c r="D598" s="29">
+        <v>109</v>
+      </c>
+      <c r="E598" s="28" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A599" s="28" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B599" s="29">
+        <v>741</v>
+      </c>
+      <c r="C599" s="29">
+        <v>1</v>
+      </c>
+      <c r="D599" s="29">
+        <v>103</v>
+      </c>
+      <c r="E599" s="28" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A600" s="28" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B600" s="29">
+        <v>1029</v>
+      </c>
+      <c r="C600" s="29">
+        <v>0</v>
+      </c>
+      <c r="D600" s="29">
+        <v>81</v>
+      </c>
+      <c r="E600" s="28" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A601" s="28" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B601" s="29">
+        <v>880</v>
+      </c>
+      <c r="C601" s="29">
+        <v>5</v>
+      </c>
+      <c r="D601" s="29">
+        <v>47</v>
+      </c>
+      <c r="E601" s="28" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A602" s="28" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B602" s="29">
+        <v>922</v>
+      </c>
+      <c r="C602" s="29">
+        <v>26</v>
+      </c>
+      <c r="D602" s="29">
+        <v>33</v>
+      </c>
+      <c r="E602" s="28" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A603" s="28" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B603" s="29">
+        <v>777</v>
+      </c>
+      <c r="C603" s="29">
+        <v>6</v>
+      </c>
+      <c r="D603" s="29">
+        <v>98</v>
+      </c>
+      <c r="E603" s="28" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A604" s="28" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B604" s="29">
+        <v>1095</v>
+      </c>
+      <c r="C604" s="29">
+        <v>1</v>
+      </c>
+      <c r="D604" s="29">
+        <v>138</v>
+      </c>
+      <c r="E604" s="28" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A605" s="28" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B605" s="29">
+        <v>1110</v>
+      </c>
+      <c r="C605" s="29">
+        <v>9</v>
+      </c>
+      <c r="D605" s="29">
+        <v>88</v>
+      </c>
+      <c r="E605" s="28" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A606" s="28" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B606" s="29">
+        <v>852</v>
+      </c>
+      <c r="C606" s="29">
+        <v>0</v>
+      </c>
+      <c r="D606" s="29">
+        <v>7</v>
+      </c>
+      <c r="E606" s="28" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A607" s="30" t="s">
         <v>483</v>
       </c>
-      <c r="B573" s="5"/>
-      <c r="C573" s="5"/>
-      <c r="D573" s="5"/>
-      <c r="E573" s="21"/>
-    </row>
-    <row r="574" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A574" s="6" t="s">
+      <c r="B607" s="31"/>
+      <c r="C607" s="31"/>
+      <c r="D607" s="31"/>
+      <c r="E607" s="21"/>
+    </row>
+    <row r="608" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A608" s="30" t="s">
         <v>483</v>
       </c>
-      <c r="B574" s="5"/>
-      <c r="C574" s="5"/>
-      <c r="D574" s="5"/>
-      <c r="E574" s="21"/>
-    </row>
-    <row r="575" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A575" s="6" t="s">
+      <c r="B608" s="31"/>
+      <c r="C608" s="31"/>
+      <c r="D608" s="31"/>
+    </row>
+    <row r="609" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A609" s="30" t="s">
         <v>483</v>
       </c>
-      <c r="B575" s="5"/>
-      <c r="C575" s="5"/>
-      <c r="D575" s="5"/>
-      <c r="E575" s="21"/>
-    </row>
-    <row r="576" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A576" s="6" t="s">
+      <c r="B609" s="31"/>
+      <c r="C609" s="31"/>
+      <c r="D609" s="31"/>
+    </row>
+    <row r="610" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A610" s="30" t="s">
         <v>483</v>
       </c>
-      <c r="B576" s="5"/>
-      <c r="C576" s="5"/>
-      <c r="D576" s="5"/>
-      <c r="E576" s="21"/>
-    </row>
-    <row r="577" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A577" s="6" t="s">
+      <c r="B610" s="31"/>
+      <c r="C610" s="31"/>
+      <c r="D610" s="31"/>
+    </row>
+    <row r="611" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A611" s="30" t="s">
         <v>483</v>
       </c>
-      <c r="B577" s="5"/>
-      <c r="C577" s="5"/>
-      <c r="D577" s="5"/>
-      <c r="E577" s="21"/>
-    </row>
-    <row r="578" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A578" s="6" t="s">
+      <c r="B611" s="31"/>
+      <c r="C611" s="31"/>
+      <c r="D611" s="31"/>
+    </row>
+    <row r="612" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A612" s="30" t="s">
         <v>483</v>
       </c>
-      <c r="B578" s="5"/>
-      <c r="C578" s="5"/>
-      <c r="D578" s="5"/>
-      <c r="E578" s="21"/>
-    </row>
-    <row r="579" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A579" s="6" t="s">
+      <c r="B612" s="31"/>
+      <c r="C612" s="31"/>
+      <c r="D612" s="31"/>
+    </row>
+    <row r="613" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A613" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="B579" s="5"/>
-      <c r="C579" s="5"/>
-      <c r="D579" s="5"/>
-      <c r="E579" s="21"/>
-    </row>
-    <row r="580" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A580" s="6" t="s">
+      <c r="B613" s="5"/>
+      <c r="C613" s="5"/>
+      <c r="D613" s="5"/>
+    </row>
+    <row r="614" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A614" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="B580" s="5"/>
-      <c r="C580" s="5"/>
-      <c r="D580" s="5"/>
-      <c r="E580" s="21"/>
-    </row>
-    <row r="581" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A581" s="6" t="s">
+      <c r="B614" s="5"/>
+      <c r="C614" s="5"/>
+      <c r="D614" s="5"/>
+    </row>
+    <row r="615" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A615" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="B581" s="5"/>
-      <c r="C581" s="5"/>
-      <c r="D581" s="5"/>
-      <c r="E581" s="21"/>
-    </row>
-    <row r="582" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A582" s="6" t="s">
+      <c r="B615" s="5"/>
+      <c r="C615" s="5"/>
+      <c r="D615" s="5"/>
+    </row>
+    <row r="616" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A616" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="B582" s="5"/>
-      <c r="C582" s="5"/>
-      <c r="D582" s="5"/>
-      <c r="E582" s="21"/>
-    </row>
-    <row r="583" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A583" s="6" t="s">
+      <c r="B616" s="5"/>
+      <c r="C616" s="5"/>
+      <c r="D616" s="5"/>
+    </row>
+    <row r="617" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A617" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="B583" s="5"/>
-      <c r="C583" s="5"/>
-      <c r="D583" s="5"/>
-      <c r="E583" s="21"/>
-    </row>
-    <row r="584" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A584" s="6" t="s">
+      <c r="B617" s="5"/>
+      <c r="C617" s="5"/>
+      <c r="D617" s="5"/>
+    </row>
+    <row r="618" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A618" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="B584" s="5"/>
-      <c r="C584" s="5"/>
-      <c r="D584" s="5"/>
-      <c r="E584" s="21"/>
-    </row>
-    <row r="585" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A585" s="6" t="s">
+      <c r="B618" s="5"/>
+      <c r="C618" s="5"/>
+      <c r="D618" s="5"/>
+    </row>
+    <row r="619" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A619" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="B585" s="5"/>
-      <c r="C585" s="5"/>
-      <c r="D585" s="5"/>
-      <c r="E585" s="21"/>
-    </row>
-    <row r="586" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A586" s="6" t="s">
+      <c r="B619" s="5"/>
+      <c r="C619" s="5"/>
+      <c r="D619" s="5"/>
+    </row>
+    <row r="620" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A620" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="B586" s="5"/>
-      <c r="C586" s="5"/>
-      <c r="D586" s="5"/>
-      <c r="E586" s="21"/>
-    </row>
-    <row r="587" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A587" s="6" t="s">
+      <c r="B620" s="5"/>
+      <c r="C620" s="5"/>
+      <c r="D620" s="5"/>
+    </row>
+    <row r="621" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A621" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="B587" s="5"/>
-      <c r="C587" s="5"/>
-      <c r="D587" s="5"/>
-      <c r="E587" s="21"/>
-    </row>
-    <row r="588" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A588" s="6" t="s">
+      <c r="B621" s="5"/>
+      <c r="C621" s="5"/>
+      <c r="D621" s="5"/>
+    </row>
+    <row r="622" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A622" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="B588" s="5"/>
-      <c r="C588" s="5"/>
-      <c r="D588" s="5"/>
-      <c r="E588" s="21"/>
-    </row>
-    <row r="589" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A589" s="6" t="s">
+      <c r="B622" s="5"/>
+      <c r="C622" s="5"/>
+      <c r="D622" s="5"/>
+    </row>
+    <row r="623" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A623" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="B589" s="5"/>
-      <c r="C589" s="5"/>
-      <c r="D589" s="5"/>
-      <c r="E589" s="21"/>
-    </row>
-    <row r="590" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A590" s="6" t="s">
+      <c r="B623" s="5"/>
+      <c r="C623" s="5"/>
+      <c r="D623" s="5"/>
+    </row>
+    <row r="624" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A624" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="B590" s="5"/>
-      <c r="C590" s="5"/>
-      <c r="D590" s="5"/>
-      <c r="E590" s="21"/>
-    </row>
-    <row r="591" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A591" s="6" t="s">
+      <c r="B624" s="5"/>
+      <c r="C624" s="5"/>
+      <c r="D624" s="5"/>
+    </row>
+    <row r="625" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A625" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="B591" s="5"/>
-      <c r="C591" s="5"/>
-      <c r="D591" s="5"/>
-      <c r="E591" s="21"/>
-    </row>
-    <row r="592" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A592" s="6" t="s">
+      <c r="B625" s="5"/>
+      <c r="C625" s="5"/>
+      <c r="D625" s="5"/>
+    </row>
+    <row r="626" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A626" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="B592" s="5"/>
-      <c r="C592" s="5"/>
-      <c r="D592" s="5"/>
-      <c r="E592" s="21"/>
-    </row>
-    <row r="593" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A593" s="6" t="s">
+      <c r="B626" s="5"/>
+      <c r="C626" s="5"/>
+      <c r="D626" s="5"/>
+    </row>
+    <row r="627" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A627" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="B593" s="5"/>
-      <c r="C593" s="5"/>
-      <c r="D593" s="5"/>
-      <c r="E593" s="21"/>
-    </row>
-    <row r="594" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A594" s="6" t="s">
+      <c r="B627" s="5"/>
+      <c r="C627" s="5"/>
+      <c r="D627" s="5"/>
+    </row>
+    <row r="628" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A628" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="B594" s="5"/>
-      <c r="C594" s="5"/>
-      <c r="D594" s="5"/>
-      <c r="E594" s="21"/>
-    </row>
-    <row r="595" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A595" s="6" t="s">
+      <c r="B628" s="5"/>
+      <c r="C628" s="5"/>
+      <c r="D628" s="5"/>
+    </row>
+    <row r="629" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A629" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="B595" s="5"/>
-      <c r="C595" s="5"/>
-      <c r="D595" s="5"/>
-      <c r="E595" s="21"/>
-    </row>
-    <row r="596" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A596" s="6" t="s">
+      <c r="B629" s="5"/>
+      <c r="C629" s="5"/>
+      <c r="D629" s="5"/>
+    </row>
+    <row r="630" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A630" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="B596" s="5"/>
-      <c r="C596" s="5"/>
-      <c r="D596" s="5"/>
-      <c r="E596" s="21"/>
-    </row>
-    <row r="597" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A597" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B597" s="5"/>
-      <c r="C597" s="5"/>
-      <c r="D597" s="5"/>
-      <c r="E597" s="21"/>
-    </row>
-    <row r="598" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A598" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B598" s="5"/>
-      <c r="C598" s="5"/>
-      <c r="D598" s="5"/>
-      <c r="E598" s="21"/>
-    </row>
-    <row r="599" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A599" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B599" s="5"/>
-      <c r="C599" s="5"/>
-      <c r="D599" s="5"/>
-      <c r="E599" s="21"/>
-    </row>
-    <row r="600" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A600" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B600" s="5"/>
-      <c r="C600" s="5"/>
-      <c r="D600" s="5"/>
-      <c r="E600" s="21"/>
-    </row>
-    <row r="601" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A601" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B601" s="5"/>
-      <c r="C601" s="5"/>
-      <c r="D601" s="5"/>
-      <c r="E601" s="21"/>
-    </row>
-    <row r="602" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A602" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B602" s="5"/>
-      <c r="C602" s="5"/>
-      <c r="D602" s="5"/>
-      <c r="E602" s="21"/>
-    </row>
-    <row r="603" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A603" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B603" s="5"/>
-      <c r="C603" s="5"/>
-      <c r="D603" s="5"/>
-      <c r="E603" s="21"/>
-    </row>
-    <row r="604" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A604" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B604" s="5"/>
-      <c r="C604" s="5"/>
-      <c r="D604" s="5"/>
-      <c r="E604" s="21"/>
-    </row>
-    <row r="605" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A605" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B605" s="5"/>
-      <c r="C605" s="5"/>
-      <c r="D605" s="5"/>
-      <c r="E605" s="21"/>
-    </row>
-    <row r="606" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A606" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B606" s="5"/>
-      <c r="C606" s="5"/>
-      <c r="D606" s="5"/>
-      <c r="E606" s="21"/>
-    </row>
-    <row r="607" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A607" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B607" s="5"/>
-      <c r="C607" s="5"/>
-      <c r="D607" s="5"/>
-      <c r="E607" s="21"/>
+      <c r="B630" s="5"/>
+      <c r="C630" s="5"/>
+      <c r="D630" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/util/ecfa-parser/Songlist.xlsx
+++ b/src/util/ecfa-parser/Songlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\GitHub\ecfa-react\src\util\ecfa-parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8C3A36-35B6-454F-96C6-5ED69007498C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B562980F-F39D-4A58-A457-8049B81CC0D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{771CF380-43F9-4460-B83F-E292DCFEC940}"/>
   </bookViews>
@@ -4287,8 +4287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090E9F61-E79C-418F-A754-D98BF653F3B5}">
   <dimension ref="A1:E630"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A590" zoomScale="135" workbookViewId="0">
-      <selection activeCell="E600" sqref="E600:E606"/>
+    <sheetView tabSelected="1" topLeftCell="A500" zoomScale="135" workbookViewId="0">
+      <selection activeCell="B513" sqref="B513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13008,7 +13008,7 @@
         <v>992</v>
       </c>
       <c r="B513" s="13">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="C513" s="13">
         <v>2</v>

--- a/src/util/ecfa-parser/Songlist.xlsx
+++ b/src/util/ecfa-parser/Songlist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\GitHub\ecfa-react\src\util\ecfa-parser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\source\repos\ecfa-react\src\util\ecfa-parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B562980F-F39D-4A58-A457-8049B81CC0D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7A4511-540C-4E4C-AEBB-CC2B4A30FB9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{771CF380-43F9-4460-B83F-E292DCFEC940}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="1211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="1235">
   <si>
     <t>Rapid Fire (SH 7)</t>
   </si>
@@ -3667,6 +3667,78 @@
   </si>
   <si>
     <t>Windy Windy Wind (SX 14)</t>
+  </si>
+  <si>
+    <t>Chatterbox</t>
+  </si>
+  <si>
+    <t>Knots</t>
+  </si>
+  <si>
+    <t>Critical Crystal (brz remix)</t>
+  </si>
+  <si>
+    <t>Turning Point</t>
+  </si>
+  <si>
+    <t>PP is Dead</t>
+  </si>
+  <si>
+    <t>Prime Time</t>
+  </si>
+  <si>
+    <t>Sweet Devil SketchP remix</t>
+  </si>
+  <si>
+    <t>Jam Jam Reggae</t>
+  </si>
+  <si>
+    <t>Fat Controller</t>
+  </si>
+  <si>
+    <t>corps-sans-organes</t>
+  </si>
+  <si>
+    <t>Estrangement</t>
+  </si>
+  <si>
+    <t>Dyscontrolled Galaxy</t>
+  </si>
+  <si>
+    <t>Sweet Devil (SketchP Remix)</t>
+  </si>
+  <si>
+    <t>Jam Jam Reggae (AMD Swing Mix) (SX 10)</t>
+  </si>
+  <si>
+    <t>Fat Controller (SX 11)</t>
+  </si>
+  <si>
+    <t>corps-sans-organes (SX 12)</t>
+  </si>
+  <si>
+    <t>Estrangement (SX 13)</t>
+  </si>
+  <si>
+    <t>Dyscontrolled Galaxy (SX 14)</t>
+  </si>
+  <si>
+    <t>Chatterbox (SX 9)</t>
+  </si>
+  <si>
+    <t>Knots (SX 10)</t>
+  </si>
+  <si>
+    <t>Critical Crystal (brz_remix) (SX 11)</t>
+  </si>
+  <si>
+    <t>Turning Point (SX 12)</t>
+  </si>
+  <si>
+    <t>PP is Dead (SX 13)</t>
+  </si>
+  <si>
+    <t>Prime Time (SX 14)</t>
   </si>
 </sst>
 </file>
@@ -3730,13 +3802,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00FFFF"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3782,6 +3855,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF910000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3873,7 +3952,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3963,8 +4042,20 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4287,8 +4378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090E9F61-E79C-418F-A754-D98BF653F3B5}">
   <dimension ref="A1:E630"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A500" zoomScale="135" workbookViewId="0">
-      <selection activeCell="B513" sqref="B513"/>
+    <sheetView tabSelected="1" topLeftCell="A602" zoomScale="135" workbookViewId="0">
+      <selection activeCell="E608" sqref="E608"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14603,102 +14694,209 @@
     </row>
     <row r="607" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A607" s="30" t="s">
-        <v>483</v>
-      </c>
-      <c r="B607" s="31"/>
-      <c r="C607" s="31"/>
-      <c r="D607" s="31"/>
-      <c r="E607" s="21"/>
+        <v>1211</v>
+      </c>
+      <c r="B607" s="31">
+        <v>507</v>
+      </c>
+      <c r="C607" s="31">
+        <v>4</v>
+      </c>
+      <c r="D607" s="31">
+        <v>74</v>
+      </c>
+      <c r="E607" s="34" t="s">
+        <v>1229</v>
+      </c>
     </row>
     <row r="608" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A608" s="30" t="s">
-        <v>483</v>
-      </c>
-      <c r="B608" s="31"/>
-      <c r="C608" s="31"/>
-      <c r="D608" s="31"/>
-    </row>
-    <row r="609" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1212</v>
+      </c>
+      <c r="B608" s="31">
+        <v>565</v>
+      </c>
+      <c r="C608" s="31">
+        <v>11</v>
+      </c>
+      <c r="D608" s="31">
+        <v>37</v>
+      </c>
+      <c r="E608" s="34" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A609" s="30" t="s">
-        <v>483</v>
-      </c>
-      <c r="B609" s="31"/>
-      <c r="C609" s="31"/>
-      <c r="D609" s="31"/>
-    </row>
-    <row r="610" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1213</v>
+      </c>
+      <c r="B609" s="31">
+        <v>653</v>
+      </c>
+      <c r="C609" s="31">
+        <v>0</v>
+      </c>
+      <c r="D609" s="31">
+        <v>49</v>
+      </c>
+      <c r="E609" s="34" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A610" s="30" t="s">
-        <v>483</v>
-      </c>
-      <c r="B610" s="31"/>
-      <c r="C610" s="31"/>
-      <c r="D610" s="31"/>
-    </row>
-    <row r="611" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1214</v>
+      </c>
+      <c r="B610" s="31">
+        <v>895</v>
+      </c>
+      <c r="C610" s="31">
+        <v>12</v>
+      </c>
+      <c r="D610" s="31">
+        <v>42</v>
+      </c>
+      <c r="E610" s="34" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A611" s="30" t="s">
-        <v>483</v>
-      </c>
-      <c r="B611" s="31"/>
-      <c r="C611" s="31"/>
-      <c r="D611" s="31"/>
-    </row>
-    <row r="612" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1215</v>
+      </c>
+      <c r="B611" s="31">
+        <v>659</v>
+      </c>
+      <c r="C611" s="31">
+        <v>0</v>
+      </c>
+      <c r="D611" s="31">
+        <v>118</v>
+      </c>
+      <c r="E611" s="34" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A612" s="30" t="s">
-        <v>483</v>
-      </c>
-      <c r="B612" s="31"/>
-      <c r="C612" s="31"/>
-      <c r="D612" s="31"/>
-    </row>
-    <row r="613" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A613" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B613" s="5"/>
-      <c r="C613" s="5"/>
-      <c r="D613" s="5"/>
-    </row>
-    <row r="614" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A614" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B614" s="5"/>
-      <c r="C614" s="5"/>
-      <c r="D614" s="5"/>
-    </row>
-    <row r="615" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A615" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B615" s="5"/>
-      <c r="C615" s="5"/>
-      <c r="D615" s="5"/>
-    </row>
-    <row r="616" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A616" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B616" s="5"/>
-      <c r="C616" s="5"/>
-      <c r="D616" s="5"/>
-    </row>
-    <row r="617" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A617" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B617" s="5"/>
-      <c r="C617" s="5"/>
-      <c r="D617" s="5"/>
-    </row>
-    <row r="618" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A618" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B618" s="5"/>
-      <c r="C618" s="5"/>
-      <c r="D618" s="5"/>
-    </row>
-    <row r="619" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1216</v>
+      </c>
+      <c r="B612" s="31">
+        <v>1269</v>
+      </c>
+      <c r="C612" s="31">
+        <v>2</v>
+      </c>
+      <c r="D612" s="31">
+        <v>101</v>
+      </c>
+      <c r="E612" s="34" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A613" s="32" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B613" s="33">
+        <v>538</v>
+      </c>
+      <c r="C613" s="33">
+        <v>7</v>
+      </c>
+      <c r="D613" s="33">
+        <v>65</v>
+      </c>
+      <c r="E613" s="35" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A614" s="32" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B614" s="33">
+        <v>487</v>
+      </c>
+      <c r="C614" s="33">
+        <v>0</v>
+      </c>
+      <c r="D614" s="33">
+        <v>33</v>
+      </c>
+      <c r="E614" s="35" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A615" s="32" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B615" s="33">
+        <v>756</v>
+      </c>
+      <c r="C615" s="33">
+        <v>13</v>
+      </c>
+      <c r="D615" s="33">
+        <v>39</v>
+      </c>
+      <c r="E615" s="35" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A616" s="32" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B616" s="33">
+        <v>809</v>
+      </c>
+      <c r="C616" s="33">
+        <v>1</v>
+      </c>
+      <c r="D616" s="33">
+        <v>68</v>
+      </c>
+      <c r="E616" s="35" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A617" s="32" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B617" s="33">
+        <v>1051</v>
+      </c>
+      <c r="C617" s="33">
+        <v>0</v>
+      </c>
+      <c r="D617" s="33">
+        <v>44</v>
+      </c>
+      <c r="E617" s="35" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A618" s="32" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B618" s="33">
+        <v>951</v>
+      </c>
+      <c r="C618" s="33">
+        <v>0</v>
+      </c>
+      <c r="D618" s="33">
+        <v>56</v>
+      </c>
+      <c r="E618" s="35" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A619" s="6" t="s">
         <v>483</v>
       </c>
@@ -14706,7 +14904,7 @@
       <c r="C619" s="5"/>
       <c r="D619" s="5"/>
     </row>
-    <row r="620" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A620" s="6" t="s">
         <v>483</v>
       </c>
@@ -14714,7 +14912,7 @@
       <c r="C620" s="5"/>
       <c r="D620" s="5"/>
     </row>
-    <row r="621" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A621" s="6" t="s">
         <v>483</v>
       </c>
@@ -14722,7 +14920,7 @@
       <c r="C621" s="5"/>
       <c r="D621" s="5"/>
     </row>
-    <row r="622" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A622" s="6" t="s">
         <v>483</v>
       </c>
@@ -14730,7 +14928,7 @@
       <c r="C622" s="5"/>
       <c r="D622" s="5"/>
     </row>
-    <row r="623" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A623" s="6" t="s">
         <v>483</v>
       </c>
@@ -14738,7 +14936,7 @@
       <c r="C623" s="5"/>
       <c r="D623" s="5"/>
     </row>
-    <row r="624" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A624" s="6" t="s">
         <v>483</v>
       </c>

--- a/src/util/ecfa-parser/Songlist.xlsx
+++ b/src/util/ecfa-parser/Songlist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\source\repos\ecfa-react\src\util\ecfa-parser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\GitHub\ecfa-react\src\util\ecfa-parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7A4511-540C-4E4C-AEBB-CC2B4A30FB9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21740B50-25BC-4C54-A54D-792473FE0E09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{771CF380-43F9-4460-B83F-E292DCFEC940}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="1235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="1247">
   <si>
     <t>Rapid Fire (SH 7)</t>
   </si>
@@ -3739,13 +3739,49 @@
   </si>
   <si>
     <t>Prime Time (SX 14)</t>
+  </si>
+  <si>
+    <t>Blust of Wind</t>
+  </si>
+  <si>
+    <t>Mantis</t>
+  </si>
+  <si>
+    <t>Kurenai no panselinos</t>
+  </si>
+  <si>
+    <t>Agen Wida</t>
+  </si>
+  <si>
+    <t>Kamah -scythe-</t>
+  </si>
+  <si>
+    <t>Chaos Terror Tech Mix</t>
+  </si>
+  <si>
+    <t>Blust of Wind (SX 9)</t>
+  </si>
+  <si>
+    <t>Mantis (SX 10)</t>
+  </si>
+  <si>
+    <t>Kurenai no panselinos (SX 11)</t>
+  </si>
+  <si>
+    <t>Agen Wida (SX 12)</t>
+  </si>
+  <si>
+    <t>Kamah (Scythe) (SX 13)</t>
+  </si>
+  <si>
+    <t>CHAOS Terror-Tech Mix (SX 14)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3808,8 +3844,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF9900"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3864,8 +3913,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000089"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -3948,11 +4003,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4055,6 +4125,21 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4376,10 +4461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090E9F61-E79C-418F-A754-D98BF653F3B5}">
-  <dimension ref="A1:E630"/>
+  <dimension ref="A1:E632"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A602" zoomScale="135" workbookViewId="0">
-      <selection activeCell="E608" sqref="E608"/>
+    <sheetView tabSelected="1" topLeftCell="A608" zoomScale="135" workbookViewId="0">
+      <selection activeCell="E619" sqref="E619:E624"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14897,52 +14982,106 @@
       </c>
     </row>
     <row r="619" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A619" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B619" s="5"/>
-      <c r="C619" s="5"/>
-      <c r="D619" s="5"/>
+      <c r="A619" s="36" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B619" s="37">
+        <v>486</v>
+      </c>
+      <c r="C619" s="37">
+        <v>0</v>
+      </c>
+      <c r="D619" s="37">
+        <v>101</v>
+      </c>
+      <c r="E619" s="40" t="s">
+        <v>1241</v>
+      </c>
     </row>
     <row r="620" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A620" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B620" s="5"/>
-      <c r="C620" s="5"/>
-      <c r="D620" s="5"/>
+      <c r="A620" s="36" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B620" s="37">
+        <v>488</v>
+      </c>
+      <c r="C620" s="37">
+        <v>9</v>
+      </c>
+      <c r="D620" s="37">
+        <v>161</v>
+      </c>
+      <c r="E620" s="40" t="s">
+        <v>1242</v>
+      </c>
     </row>
     <row r="621" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A621" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B621" s="5"/>
-      <c r="C621" s="5"/>
-      <c r="D621" s="5"/>
+      <c r="A621" s="36" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B621" s="37">
+        <v>669</v>
+      </c>
+      <c r="C621" s="37">
+        <v>0</v>
+      </c>
+      <c r="D621" s="37">
+        <v>64</v>
+      </c>
+      <c r="E621" s="40" t="s">
+        <v>1243</v>
+      </c>
     </row>
     <row r="622" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A622" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B622" s="5"/>
-      <c r="C622" s="5"/>
-      <c r="D622" s="5"/>
+      <c r="A622" s="36" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B622" s="37">
+        <v>616</v>
+      </c>
+      <c r="C622" s="37">
+        <v>2</v>
+      </c>
+      <c r="D622" s="37">
+        <v>30</v>
+      </c>
+      <c r="E622" s="40" t="s">
+        <v>1244</v>
+      </c>
     </row>
     <row r="623" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A623" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B623" s="5"/>
-      <c r="C623" s="5"/>
-      <c r="D623" s="5"/>
+      <c r="A623" s="36" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B623" s="37">
+        <v>819</v>
+      </c>
+      <c r="C623" s="37">
+        <v>2</v>
+      </c>
+      <c r="D623" s="37">
+        <v>154</v>
+      </c>
+      <c r="E623" s="40" t="s">
+        <v>1245</v>
+      </c>
     </row>
     <row r="624" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A624" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B624" s="5"/>
-      <c r="C624" s="5"/>
-      <c r="D624" s="5"/>
+      <c r="A624" s="36" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B624" s="37">
+        <v>810</v>
+      </c>
+      <c r="C624" s="37">
+        <v>4</v>
+      </c>
+      <c r="D624" s="37">
+        <v>45</v>
+      </c>
+      <c r="E624" s="40" t="s">
+        <v>1246</v>
+      </c>
     </row>
     <row r="625" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A625" s="6" t="s">
@@ -14991,6 +15130,18 @@
       <c r="B630" s="5"/>
       <c r="C630" s="5"/>
       <c r="D630" s="5"/>
+    </row>
+    <row r="631" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A631" s="38"/>
+      <c r="B631" s="39"/>
+      <c r="C631" s="39"/>
+      <c r="D631" s="39"/>
+    </row>
+    <row r="632" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A632" s="38"/>
+      <c r="B632" s="39"/>
+      <c r="C632" s="39"/>
+      <c r="D632" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/util/ecfa-parser/Songlist.xlsx
+++ b/src/util/ecfa-parser/Songlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\GitHub\ecfa-react\src\util\ecfa-parser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\source\repos\ecfa-react\src\util\ecfa-parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21740B50-25BC-4C54-A54D-792473FE0E09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8673C0F9-D79B-4AE0-AE36-F4C2F0DAB588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{771CF380-43F9-4460-B83F-E292DCFEC940}"/>
+    <workbookView xWindow="17370" yWindow="1770" windowWidth="28800" windowHeight="15435" xr2:uid="{771CF380-43F9-4460-B83F-E292DCFEC940}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="1247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="1264">
   <si>
     <t>Rapid Fire (SH 7)</t>
   </si>
@@ -1485,9 +1485,6 @@
     <t>Spooky</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>Folder Name</t>
   </si>
   <si>
@@ -3775,13 +3772,67 @@
   </si>
   <si>
     <t>CHAOS Terror-Tech Mix (SX 14)</t>
+  </si>
+  <si>
+    <t>Superboy (SH)</t>
+  </si>
+  <si>
+    <t>Esoterica (SH)</t>
+  </si>
+  <si>
+    <t>Scorching Moon (SH)</t>
+  </si>
+  <si>
+    <t>Down the Road</t>
+  </si>
+  <si>
+    <t>Doughnut Planet</t>
+  </si>
+  <si>
+    <t>P.R.M.</t>
+  </si>
+  <si>
+    <t>Towerblock</t>
+  </si>
+  <si>
+    <t>Pique</t>
+  </si>
+  <si>
+    <t>Prickly Pear's Ultimatum</t>
+  </si>
+  <si>
+    <t>Superboy (SH 7)</t>
+  </si>
+  <si>
+    <t>Esoterica (Yunosuke Remix) (SH 8)</t>
+  </si>
+  <si>
+    <t>Scorching Moon (SH 9)</t>
+  </si>
+  <si>
+    <t>Down the Road (SX 10)</t>
+  </si>
+  <si>
+    <t>Doughnut Planet (SX 11)</t>
+  </si>
+  <si>
+    <t>P.R.M (SX 12)</t>
+  </si>
+  <si>
+    <t>Towerblock (SX 13)</t>
+  </si>
+  <si>
+    <t>pique (SX 14)</t>
+  </si>
+  <si>
+    <t>[Mix] Prickly Pear's Ultimatum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3852,13 +3903,21 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF00FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3916,6 +3975,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF000089"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4022,7 +4087,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4133,14 +4198,26 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4461,10 +4538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090E9F61-E79C-418F-A754-D98BF653F3B5}">
-  <dimension ref="A1:E632"/>
+  <dimension ref="A1:E633"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A608" zoomScale="135" workbookViewId="0">
-      <selection activeCell="E619" sqref="E619:E624"/>
+    <sheetView tabSelected="1" topLeftCell="A615" zoomScale="135" workbookViewId="0">
+      <selection activeCell="E633" sqref="E633"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4489,7 +4566,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4506,7 +4583,7 @@
         <v>39</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4523,7 +4600,7 @@
         <v>113</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4540,7 +4617,7 @@
         <v>61</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4557,7 +4634,7 @@
         <v>79</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4574,7 +4651,7 @@
         <v>26</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4591,7 +4668,7 @@
         <v>63</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4608,7 +4685,7 @@
         <v>53</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4625,7 +4702,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4642,7 +4719,7 @@
         <v>59</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4659,7 +4736,7 @@
         <v>46</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4676,7 +4753,7 @@
         <v>60</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4693,7 +4770,7 @@
         <v>48</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4710,7 +4787,7 @@
         <v>93</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4727,7 +4804,7 @@
         <v>50</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4744,7 +4821,7 @@
         <v>49</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4761,7 +4838,7 @@
         <v>50</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4778,7 +4855,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4795,7 +4872,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4812,7 +4889,7 @@
         <v>46</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4829,7 +4906,7 @@
         <v>62</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4846,7 +4923,7 @@
         <v>7</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4863,7 +4940,7 @@
         <v>77</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4880,7 +4957,7 @@
         <v>46</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4897,7 +4974,7 @@
         <v>13</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4914,7 +4991,7 @@
         <v>50</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4931,7 +5008,7 @@
         <v>36</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4948,7 +5025,7 @@
         <v>36</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4965,7 +5042,7 @@
         <v>88</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4982,7 +5059,7 @@
         <v>101</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4999,7 +5076,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5016,7 +5093,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5033,7 +5110,7 @@
         <v>12</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5050,7 +5127,7 @@
         <v>28</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5067,7 +5144,7 @@
         <v>11</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5084,7 +5161,7 @@
         <v>66</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5101,7 +5178,7 @@
         <v>54</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5118,7 +5195,7 @@
         <v>31</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5135,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5152,7 +5229,7 @@
         <v>23</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5169,7 +5246,7 @@
         <v>37</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5186,7 +5263,7 @@
         <v>16</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5203,7 +5280,7 @@
         <v>37</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5220,7 +5297,7 @@
         <v>22</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5237,7 +5314,7 @@
         <v>69</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5254,7 +5331,7 @@
         <v>46</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5271,7 +5348,7 @@
         <v>53</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5288,7 +5365,7 @@
         <v>4</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5305,7 +5382,7 @@
         <v>47</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5322,7 +5399,7 @@
         <v>76</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5339,7 +5416,7 @@
         <v>51</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5356,7 +5433,7 @@
         <v>10</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5373,7 +5450,7 @@
         <v>62</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5390,7 +5467,7 @@
         <v>38</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5407,7 +5484,7 @@
         <v>26</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5424,7 +5501,7 @@
         <v>60</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5441,7 +5518,7 @@
         <v>30</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5458,7 +5535,7 @@
         <v>43</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5475,7 +5552,7 @@
         <v>46</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5492,7 +5569,7 @@
         <v>123</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5509,7 +5586,7 @@
         <v>76</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5526,7 +5603,7 @@
         <v>38</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5543,7 +5620,7 @@
         <v>141</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5560,7 +5637,7 @@
         <v>17</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5577,7 +5654,7 @@
         <v>12</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5594,7 +5671,7 @@
         <v>95</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5611,7 +5688,7 @@
         <v>105</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5628,7 +5705,7 @@
         <v>42</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5645,7 +5722,7 @@
         <v>57</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5662,7 +5739,7 @@
         <v>39</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5679,7 +5756,7 @@
         <v>35</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5696,7 +5773,7 @@
         <v>42</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5713,7 +5790,7 @@
         <v>71</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5730,7 +5807,7 @@
         <v>105</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5747,7 +5824,7 @@
         <v>59</v>
       </c>
       <c r="E75" s="21" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5764,7 +5841,7 @@
         <v>71</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5781,7 +5858,7 @@
         <v>82</v>
       </c>
       <c r="E77" s="21" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5798,7 +5875,7 @@
         <v>70</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5815,7 +5892,7 @@
         <v>84</v>
       </c>
       <c r="E79" s="21" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5832,7 +5909,7 @@
         <v>111</v>
       </c>
       <c r="E80" s="21" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5849,7 +5926,7 @@
         <v>48</v>
       </c>
       <c r="E81" s="21" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5866,7 +5943,7 @@
         <v>30</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5883,7 +5960,7 @@
         <v>66</v>
       </c>
       <c r="E83" s="21" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5900,7 +5977,7 @@
         <v>39</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5917,7 +5994,7 @@
         <v>18</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5934,7 +6011,7 @@
         <v>68</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5951,7 +6028,7 @@
         <v>70</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5968,7 +6045,7 @@
         <v>56</v>
       </c>
       <c r="E88" s="21" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5985,7 +6062,7 @@
         <v>96</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6002,7 +6079,7 @@
         <v>13</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6019,7 +6096,7 @@
         <v>55</v>
       </c>
       <c r="E91" s="21" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6036,7 +6113,7 @@
         <v>59</v>
       </c>
       <c r="E92" s="21" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6053,7 +6130,7 @@
         <v>14</v>
       </c>
       <c r="E93" s="21" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6070,7 +6147,7 @@
         <v>64</v>
       </c>
       <c r="E94" s="21" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6087,7 +6164,7 @@
         <v>107</v>
       </c>
       <c r="E95" s="21" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6104,7 +6181,7 @@
         <v>135</v>
       </c>
       <c r="E96" s="21" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6121,7 +6198,7 @@
         <v>24</v>
       </c>
       <c r="E97" s="21" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6138,7 +6215,7 @@
         <v>17</v>
       </c>
       <c r="E98" s="21" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6155,7 +6232,7 @@
         <v>27</v>
       </c>
       <c r="E99" s="21" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6172,7 +6249,7 @@
         <v>64</v>
       </c>
       <c r="E100" s="21" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6189,7 +6266,7 @@
         <v>64</v>
       </c>
       <c r="E101" s="21" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6206,7 +6283,7 @@
         <v>72</v>
       </c>
       <c r="E102" s="21" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6223,7 +6300,7 @@
         <v>95</v>
       </c>
       <c r="E103" s="21" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6240,7 +6317,7 @@
         <v>65</v>
       </c>
       <c r="E104" s="21" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6257,7 +6334,7 @@
         <v>34</v>
       </c>
       <c r="E105" s="21" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6274,7 +6351,7 @@
         <v>23</v>
       </c>
       <c r="E106" s="21" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6291,7 +6368,7 @@
         <v>53</v>
       </c>
       <c r="E107" s="21" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6308,7 +6385,7 @@
         <v>82</v>
       </c>
       <c r="E108" s="21" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6325,7 +6402,7 @@
         <v>49</v>
       </c>
       <c r="E109" s="21" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6342,7 +6419,7 @@
         <v>67</v>
       </c>
       <c r="E110" s="21" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6359,7 +6436,7 @@
         <v>52</v>
       </c>
       <c r="E111" s="21" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6376,7 +6453,7 @@
         <v>50</v>
       </c>
       <c r="E112" s="21" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6393,7 +6470,7 @@
         <v>54</v>
       </c>
       <c r="E113" s="21" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6410,7 +6487,7 @@
         <v>26</v>
       </c>
       <c r="E114" s="21" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6427,7 +6504,7 @@
         <v>56</v>
       </c>
       <c r="E115" s="21" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6444,7 +6521,7 @@
         <v>63</v>
       </c>
       <c r="E116" s="21" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6461,7 +6538,7 @@
         <v>65</v>
       </c>
       <c r="E117" s="21" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6478,7 +6555,7 @@
         <v>31</v>
       </c>
       <c r="E118" s="21" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6495,7 +6572,7 @@
         <v>81</v>
       </c>
       <c r="E119" s="21" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6512,7 +6589,7 @@
         <v>73</v>
       </c>
       <c r="E120" s="21" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6529,7 +6606,7 @@
         <v>62</v>
       </c>
       <c r="E121" s="21" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6546,7 +6623,7 @@
         <v>60</v>
       </c>
       <c r="E122" s="21" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6563,7 +6640,7 @@
         <v>81</v>
       </c>
       <c r="E123" s="21" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6580,7 +6657,7 @@
         <v>41</v>
       </c>
       <c r="E124" s="21" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6597,7 +6674,7 @@
         <v>85</v>
       </c>
       <c r="E125" s="21" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6614,7 +6691,7 @@
         <v>83</v>
       </c>
       <c r="E126" s="21" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6631,7 +6708,7 @@
         <v>85</v>
       </c>
       <c r="E127" s="21" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6648,7 +6725,7 @@
         <v>19</v>
       </c>
       <c r="E128" s="21" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6665,7 +6742,7 @@
         <v>6</v>
       </c>
       <c r="E129" s="21" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6682,7 +6759,7 @@
         <v>80</v>
       </c>
       <c r="E130" s="21" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6699,7 +6776,7 @@
         <v>38</v>
       </c>
       <c r="E131" s="21" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6716,7 +6793,7 @@
         <v>69</v>
       </c>
       <c r="E132" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6733,7 +6810,7 @@
         <v>87</v>
       </c>
       <c r="E133" s="21" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6750,7 +6827,7 @@
         <v>43</v>
       </c>
       <c r="E134" s="21" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6767,7 +6844,7 @@
         <v>90</v>
       </c>
       <c r="E135" s="21" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6784,7 +6861,7 @@
         <v>46</v>
       </c>
       <c r="E136" s="21" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6801,7 +6878,7 @@
         <v>48</v>
       </c>
       <c r="E137" s="21" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6818,7 +6895,7 @@
         <v>34</v>
       </c>
       <c r="E138" s="21" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6835,7 +6912,7 @@
         <v>30</v>
       </c>
       <c r="E139" s="21" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6852,7 +6929,7 @@
         <v>54</v>
       </c>
       <c r="E140" s="21" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6869,7 +6946,7 @@
         <v>75</v>
       </c>
       <c r="E141" s="21" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6886,7 +6963,7 @@
         <v>74</v>
       </c>
       <c r="E142" s="21" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6903,7 +6980,7 @@
         <v>116</v>
       </c>
       <c r="E143" s="21" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6920,7 +6997,7 @@
         <v>24</v>
       </c>
       <c r="E144" s="21" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6937,7 +7014,7 @@
         <v>28</v>
       </c>
       <c r="E145" s="21" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6954,7 +7031,7 @@
         <v>25</v>
       </c>
       <c r="E146" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6971,7 +7048,7 @@
         <v>15</v>
       </c>
       <c r="E147" s="21" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6988,7 +7065,7 @@
         <v>53</v>
       </c>
       <c r="E148" s="21" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7005,7 +7082,7 @@
         <v>103</v>
       </c>
       <c r="E149" s="21" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7022,7 +7099,7 @@
         <v>52</v>
       </c>
       <c r="E150" s="21" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7039,7 +7116,7 @@
         <v>50</v>
       </c>
       <c r="E151" s="21" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7056,7 +7133,7 @@
         <v>48</v>
       </c>
       <c r="E152" s="21" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7073,7 +7150,7 @@
         <v>42</v>
       </c>
       <c r="E153" s="21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7090,7 +7167,7 @@
         <v>32</v>
       </c>
       <c r="E154" s="21" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7107,7 +7184,7 @@
         <v>55</v>
       </c>
       <c r="E155" s="21" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7124,7 +7201,7 @@
         <v>59</v>
       </c>
       <c r="E156" s="21" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7141,7 +7218,7 @@
         <v>20</v>
       </c>
       <c r="E157" s="21" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7158,7 +7235,7 @@
         <v>21</v>
       </c>
       <c r="E158" s="21" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7175,7 +7252,7 @@
         <v>85</v>
       </c>
       <c r="E159" s="21" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7192,7 +7269,7 @@
         <v>23</v>
       </c>
       <c r="E160" s="21" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7209,7 +7286,7 @@
         <v>38</v>
       </c>
       <c r="E161" s="21" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7226,7 +7303,7 @@
         <v>65</v>
       </c>
       <c r="E162" s="21" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7243,7 +7320,7 @@
         <v>40</v>
       </c>
       <c r="E163" s="21" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7260,7 +7337,7 @@
         <v>74</v>
       </c>
       <c r="E164" s="21" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7277,7 +7354,7 @@
         <v>49</v>
       </c>
       <c r="E165" s="21" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7294,7 +7371,7 @@
         <v>61</v>
       </c>
       <c r="E166" s="21" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7311,7 +7388,7 @@
         <v>21</v>
       </c>
       <c r="E167" s="21" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7328,7 +7405,7 @@
         <v>49</v>
       </c>
       <c r="E168" s="21" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7345,7 +7422,7 @@
         <v>81</v>
       </c>
       <c r="E169" s="21" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7362,7 +7439,7 @@
         <v>67</v>
       </c>
       <c r="E170" s="21" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7379,7 +7456,7 @@
         <v>96</v>
       </c>
       <c r="E171" s="21" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7396,7 +7473,7 @@
         <v>5</v>
       </c>
       <c r="E172" s="21" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7413,7 +7490,7 @@
         <v>89</v>
       </c>
       <c r="E173" s="21" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7430,7 +7507,7 @@
         <v>24</v>
       </c>
       <c r="E174" s="21" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7447,7 +7524,7 @@
         <v>75</v>
       </c>
       <c r="E175" s="21" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7464,7 +7541,7 @@
         <v>57</v>
       </c>
       <c r="E176" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7481,7 +7558,7 @@
         <v>18</v>
       </c>
       <c r="E177" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7498,7 +7575,7 @@
         <v>93</v>
       </c>
       <c r="E178" s="21" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7515,7 +7592,7 @@
         <v>65</v>
       </c>
       <c r="E179" s="21" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7532,7 +7609,7 @@
         <v>87</v>
       </c>
       <c r="E180" s="21" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7549,7 +7626,7 @@
         <v>94</v>
       </c>
       <c r="E181" s="21" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7566,7 +7643,7 @@
         <v>38</v>
       </c>
       <c r="E182" s="21" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7583,7 +7660,7 @@
         <v>23</v>
       </c>
       <c r="E183" s="21" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7600,7 +7677,7 @@
         <v>54</v>
       </c>
       <c r="E184" s="21" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7617,7 +7694,7 @@
         <v>73</v>
       </c>
       <c r="E185" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7634,7 +7711,7 @@
         <v>121</v>
       </c>
       <c r="E186" s="21" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7651,7 +7728,7 @@
         <v>74</v>
       </c>
       <c r="E187" s="21" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7668,7 +7745,7 @@
         <v>84</v>
       </c>
       <c r="E188" s="21" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7685,7 +7762,7 @@
         <v>26</v>
       </c>
       <c r="E189" s="21" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7702,7 +7779,7 @@
         <v>28</v>
       </c>
       <c r="E190" s="21" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7719,7 +7796,7 @@
         <v>2</v>
       </c>
       <c r="E191" s="21" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7736,7 +7813,7 @@
         <v>90</v>
       </c>
       <c r="E192" s="21" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7753,7 +7830,7 @@
         <v>94</v>
       </c>
       <c r="E193" s="21" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7770,7 +7847,7 @@
         <v>62</v>
       </c>
       <c r="E194" s="21" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7787,7 +7864,7 @@
         <v>14</v>
       </c>
       <c r="E195" s="21" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7804,7 +7881,7 @@
         <v>41</v>
       </c>
       <c r="E196" s="21" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7821,7 +7898,7 @@
         <v>63</v>
       </c>
       <c r="E197" s="21" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7838,7 +7915,7 @@
         <v>42</v>
       </c>
       <c r="E198" s="21" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7855,7 +7932,7 @@
         <v>43</v>
       </c>
       <c r="E199" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7872,7 +7949,7 @@
         <v>56</v>
       </c>
       <c r="E200" s="21" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7889,7 +7966,7 @@
         <v>36</v>
       </c>
       <c r="E201" s="21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7906,7 +7983,7 @@
         <v>47</v>
       </c>
       <c r="E202" s="21" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7923,7 +8000,7 @@
         <v>77</v>
       </c>
       <c r="E203" s="21" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7940,7 +8017,7 @@
         <v>69</v>
       </c>
       <c r="E204" s="21" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7957,7 +8034,7 @@
         <v>94</v>
       </c>
       <c r="E205" s="21" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7974,7 +8051,7 @@
         <v>77</v>
       </c>
       <c r="E206" s="21" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7991,7 +8068,7 @@
         <v>63</v>
       </c>
       <c r="E207" s="21" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8008,7 +8085,7 @@
         <v>79</v>
       </c>
       <c r="E208" s="21" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8025,7 +8102,7 @@
         <v>35</v>
       </c>
       <c r="E209" s="21" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8042,7 +8119,7 @@
         <v>36</v>
       </c>
       <c r="E210" s="21" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8059,7 +8136,7 @@
         <v>4</v>
       </c>
       <c r="E211" s="21" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8076,7 +8153,7 @@
         <v>16</v>
       </c>
       <c r="E212" s="21" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8093,7 +8170,7 @@
         <v>63</v>
       </c>
       <c r="E213" s="21" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8110,7 +8187,7 @@
         <v>99</v>
       </c>
       <c r="E214" s="21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8127,7 +8204,7 @@
         <v>38</v>
       </c>
       <c r="E215" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8144,7 +8221,7 @@
         <v>37</v>
       </c>
       <c r="E216" s="21" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8161,7 +8238,7 @@
         <v>19</v>
       </c>
       <c r="E217" s="21" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8178,7 +8255,7 @@
         <v>6</v>
       </c>
       <c r="E218" s="21" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8195,7 +8272,7 @@
         <v>42</v>
       </c>
       <c r="E219" s="21" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8212,7 +8289,7 @@
         <v>11</v>
       </c>
       <c r="E220" s="21" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8229,7 +8306,7 @@
         <v>77</v>
       </c>
       <c r="E221" s="21" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8246,7 +8323,7 @@
         <v>22</v>
       </c>
       <c r="E222" s="21" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8263,7 +8340,7 @@
         <v>66</v>
       </c>
       <c r="E223" s="21" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8280,7 +8357,7 @@
         <v>70</v>
       </c>
       <c r="E224" s="21" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8297,7 +8374,7 @@
         <v>47</v>
       </c>
       <c r="E225" s="21" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8314,7 +8391,7 @@
         <v>21</v>
       </c>
       <c r="E226" s="21" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8331,7 +8408,7 @@
         <v>47</v>
       </c>
       <c r="E227" s="21" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8348,7 +8425,7 @@
         <v>9</v>
       </c>
       <c r="E228" s="21" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8365,7 +8442,7 @@
         <v>32</v>
       </c>
       <c r="E229" s="21" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8382,7 +8459,7 @@
         <v>21</v>
       </c>
       <c r="E230" s="21" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8399,7 +8476,7 @@
         <v>7</v>
       </c>
       <c r="E231" s="21" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8416,7 +8493,7 @@
         <v>122</v>
       </c>
       <c r="E232" s="21" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8433,7 +8510,7 @@
         <v>89</v>
       </c>
       <c r="E233" s="21" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8450,7 +8527,7 @@
         <v>92</v>
       </c>
       <c r="E234" s="21" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8467,7 +8544,7 @@
         <v>59</v>
       </c>
       <c r="E235" s="21" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8484,7 +8561,7 @@
         <v>23</v>
       </c>
       <c r="E236" s="21" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8501,7 +8578,7 @@
         <v>62</v>
       </c>
       <c r="E237" s="21" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8518,7 +8595,7 @@
         <v>69</v>
       </c>
       <c r="E238" s="21" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8535,7 +8612,7 @@
         <v>3</v>
       </c>
       <c r="E239" s="21" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8552,7 +8629,7 @@
         <v>45</v>
       </c>
       <c r="E240" s="21" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8569,7 +8646,7 @@
         <v>15</v>
       </c>
       <c r="E241" s="21" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8586,7 +8663,7 @@
         <v>81</v>
       </c>
       <c r="E242" s="21" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8603,7 +8680,7 @@
         <v>46</v>
       </c>
       <c r="E243" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8620,7 +8697,7 @@
         <v>29</v>
       </c>
       <c r="E244" s="21" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8637,7 +8714,7 @@
         <v>68</v>
       </c>
       <c r="E245" s="21" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8654,7 +8731,7 @@
         <v>40</v>
       </c>
       <c r="E246" s="21" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8671,7 +8748,7 @@
         <v>36</v>
       </c>
       <c r="E247" s="21" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8688,7 +8765,7 @@
         <v>92</v>
       </c>
       <c r="E248" s="21" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8705,7 +8782,7 @@
         <v>91</v>
       </c>
       <c r="E249" s="21" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8722,7 +8799,7 @@
         <v>5</v>
       </c>
       <c r="E250" s="21" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8739,7 +8816,7 @@
         <v>63</v>
       </c>
       <c r="E251" s="21" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8756,7 +8833,7 @@
         <v>41</v>
       </c>
       <c r="E252" s="21" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8773,7 +8850,7 @@
         <v>100</v>
       </c>
       <c r="E253" s="21" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8790,7 +8867,7 @@
         <v>32</v>
       </c>
       <c r="E254" s="21" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8807,7 +8884,7 @@
         <v>65</v>
       </c>
       <c r="E255" s="21" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8824,7 +8901,7 @@
         <v>35</v>
       </c>
       <c r="E256" s="21" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8841,7 +8918,7 @@
         <v>19</v>
       </c>
       <c r="E257" s="21" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8858,7 +8935,7 @@
         <v>38</v>
       </c>
       <c r="E258" s="21" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8875,7 +8952,7 @@
         <v>101</v>
       </c>
       <c r="E259" s="21" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8892,7 +8969,7 @@
         <v>40</v>
       </c>
       <c r="E260" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8909,7 +8986,7 @@
         <v>78</v>
       </c>
       <c r="E261" s="21" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8926,7 +9003,7 @@
         <v>116</v>
       </c>
       <c r="E262" s="21" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8943,7 +9020,7 @@
         <v>41</v>
       </c>
       <c r="E263" s="21" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8960,7 +9037,7 @@
         <v>59</v>
       </c>
       <c r="E264" s="21" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8977,7 +9054,7 @@
         <v>114</v>
       </c>
       <c r="E265" s="21" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8994,7 +9071,7 @@
         <v>56</v>
       </c>
       <c r="E266" s="21" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9011,7 +9088,7 @@
         <v>123</v>
       </c>
       <c r="E267" s="21" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9028,7 +9105,7 @@
         <v>78</v>
       </c>
       <c r="E268" s="21" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9045,7 +9122,7 @@
         <v>36</v>
       </c>
       <c r="E269" s="21" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9062,7 +9139,7 @@
         <v>61</v>
       </c>
       <c r="E270" s="21" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9079,7 +9156,7 @@
         <v>71</v>
       </c>
       <c r="E271" s="21" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9096,7 +9173,7 @@
         <v>43</v>
       </c>
       <c r="E272" s="21" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9113,7 +9190,7 @@
         <v>19</v>
       </c>
       <c r="E273" s="21" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9130,7 +9207,7 @@
         <v>19</v>
       </c>
       <c r="E274" s="21" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9147,7 +9224,7 @@
         <v>109</v>
       </c>
       <c r="E275" s="21" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9164,7 +9241,7 @@
         <v>34</v>
       </c>
       <c r="E276" s="21" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9181,7 +9258,7 @@
         <v>79</v>
       </c>
       <c r="E277" s="21" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9198,7 +9275,7 @@
         <v>72</v>
       </c>
       <c r="E278" s="21" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9215,7 +9292,7 @@
         <v>25</v>
       </c>
       <c r="E279" s="21" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9232,7 +9309,7 @@
         <v>74</v>
       </c>
       <c r="E280" s="21" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9249,7 +9326,7 @@
         <v>54</v>
       </c>
       <c r="E281" s="21" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9266,7 +9343,7 @@
         <v>152</v>
       </c>
       <c r="E282" s="21" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9283,7 +9360,7 @@
         <v>33</v>
       </c>
       <c r="E283" s="21" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9300,7 +9377,7 @@
         <v>92</v>
       </c>
       <c r="E284" s="21" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9317,7 +9394,7 @@
         <v>92</v>
       </c>
       <c r="E285" s="21" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9334,7 +9411,7 @@
         <v>76</v>
       </c>
       <c r="E286" s="21" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9351,7 +9428,7 @@
         <v>72</v>
       </c>
       <c r="E287" s="21" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9368,7 +9445,7 @@
         <v>83</v>
       </c>
       <c r="E288" s="21" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9385,7 +9462,7 @@
         <v>25</v>
       </c>
       <c r="E289" s="21" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9402,7 +9479,7 @@
         <v>24</v>
       </c>
       <c r="E290" s="21" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9419,7 +9496,7 @@
         <v>106</v>
       </c>
       <c r="E291" s="21" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9436,7 +9513,7 @@
         <v>61</v>
       </c>
       <c r="E292" s="21" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9453,7 +9530,7 @@
         <v>51</v>
       </c>
       <c r="E293" s="21" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9470,7 +9547,7 @@
         <v>10</v>
       </c>
       <c r="E294" s="21" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9487,7 +9564,7 @@
         <v>36</v>
       </c>
       <c r="E295" s="21" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9504,7 +9581,7 @@
         <v>83</v>
       </c>
       <c r="E296" s="21" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9521,7 +9598,7 @@
         <v>23</v>
       </c>
       <c r="E297" s="21" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9538,7 +9615,7 @@
         <v>74</v>
       </c>
       <c r="E298" s="21" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9555,7 +9632,7 @@
         <v>34</v>
       </c>
       <c r="E299" s="21" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9572,7 +9649,7 @@
         <v>65</v>
       </c>
       <c r="E300" s="21" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9589,7 +9666,7 @@
         <v>15</v>
       </c>
       <c r="E301" s="21" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9606,7 +9683,7 @@
         <v>12</v>
       </c>
       <c r="E302" s="21" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9623,7 +9700,7 @@
         <v>59</v>
       </c>
       <c r="E303" s="21" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9640,7 +9717,7 @@
         <v>134</v>
       </c>
       <c r="E304" s="21" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9657,7 +9734,7 @@
         <v>141</v>
       </c>
       <c r="E305" s="21" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9674,7 +9751,7 @@
         <v>62</v>
       </c>
       <c r="E306" s="21" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9691,7 +9768,7 @@
         <v>52</v>
       </c>
       <c r="E307" s="21" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9708,7 +9785,7 @@
         <v>39</v>
       </c>
       <c r="E308" s="21" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9725,7 +9802,7 @@
         <v>37</v>
       </c>
       <c r="E309" s="21" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9742,7 +9819,7 @@
         <v>30</v>
       </c>
       <c r="E310" s="21" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9759,7 +9836,7 @@
         <v>56</v>
       </c>
       <c r="E311" s="21" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9776,7 +9853,7 @@
         <v>122</v>
       </c>
       <c r="E312" s="21" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9793,7 +9870,7 @@
         <v>33</v>
       </c>
       <c r="E313" s="21" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9810,7 +9887,7 @@
         <v>33</v>
       </c>
       <c r="E314" s="21" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9827,7 +9904,7 @@
         <v>3</v>
       </c>
       <c r="E315" s="21" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9844,7 +9921,7 @@
         <v>72</v>
       </c>
       <c r="E316" s="21" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9861,7 +9938,7 @@
         <v>70</v>
       </c>
       <c r="E317" s="21" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9878,7 +9955,7 @@
         <v>58</v>
       </c>
       <c r="E318" s="21" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9895,7 +9972,7 @@
         <v>26</v>
       </c>
       <c r="E319" s="21" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9912,7 +9989,7 @@
         <v>41</v>
       </c>
       <c r="E320" s="21" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9929,7 +10006,7 @@
         <v>88</v>
       </c>
       <c r="E321" s="21" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9946,7 +10023,7 @@
         <v>40</v>
       </c>
       <c r="E322" s="21" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9963,7 +10040,7 @@
         <v>110</v>
       </c>
       <c r="E323" s="21" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9980,7 +10057,7 @@
         <v>135</v>
       </c>
       <c r="E324" s="21" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9997,7 +10074,7 @@
         <v>27</v>
       </c>
       <c r="E325" s="21" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10014,7 +10091,7 @@
         <v>57</v>
       </c>
       <c r="E326" s="21" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10031,7 +10108,7 @@
         <v>96</v>
       </c>
       <c r="E327" s="21" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10048,7 +10125,7 @@
         <v>99</v>
       </c>
       <c r="E328" s="21" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10065,7 +10142,7 @@
         <v>42</v>
       </c>
       <c r="E329" s="21" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10082,7 +10159,7 @@
         <v>89</v>
       </c>
       <c r="E330" s="21" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10099,7 +10176,7 @@
         <v>29</v>
       </c>
       <c r="E331" s="21" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10116,7 +10193,7 @@
         <v>38</v>
       </c>
       <c r="E332" s="21" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="333" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10133,7 +10210,7 @@
         <v>53</v>
       </c>
       <c r="E333" s="21" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10150,7 +10227,7 @@
         <v>65</v>
       </c>
       <c r="E334" s="21" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10167,7 +10244,7 @@
         <v>35</v>
       </c>
       <c r="E335" s="21" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10184,7 +10261,7 @@
         <v>11</v>
       </c>
       <c r="E336" s="21" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10201,7 +10278,7 @@
         <v>11</v>
       </c>
       <c r="E337" s="21" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="338" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10218,7 +10295,7 @@
         <v>62</v>
       </c>
       <c r="E338" s="21" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10235,7 +10312,7 @@
         <v>78</v>
       </c>
       <c r="E339" s="21" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10252,7 +10329,7 @@
         <v>38</v>
       </c>
       <c r="E340" s="21" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="341" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10269,7 +10346,7 @@
         <v>53</v>
       </c>
       <c r="E341" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="342" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10286,7 +10363,7 @@
         <v>77</v>
       </c>
       <c r="E342" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="343" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10303,7 +10380,7 @@
         <v>17</v>
       </c>
       <c r="E343" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="344" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10320,7 +10397,7 @@
         <v>62</v>
       </c>
       <c r="E344" s="21" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="345" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10337,7 +10414,7 @@
         <v>32</v>
       </c>
       <c r="E345" s="21" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="346" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10354,7 +10431,7 @@
         <v>82</v>
       </c>
       <c r="E346" s="21" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="347" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10371,7 +10448,7 @@
         <v>72</v>
       </c>
       <c r="E347" s="21" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="348" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10388,7 +10465,7 @@
         <v>105</v>
       </c>
       <c r="E348" s="21" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10405,7 +10482,7 @@
         <v>71</v>
       </c>
       <c r="E349" s="21" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="350" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10422,7 +10499,7 @@
         <v>99</v>
       </c>
       <c r="E350" s="21" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="351" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10439,7 +10516,7 @@
         <v>64</v>
       </c>
       <c r="E351" s="21" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="352" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10456,7 +10533,7 @@
         <v>12</v>
       </c>
       <c r="E352" s="21" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="353" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10473,7 +10550,7 @@
         <v>49</v>
       </c>
       <c r="E353" s="21" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="354" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10490,7 +10567,7 @@
         <v>42</v>
       </c>
       <c r="E354" s="21" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="355" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10507,7 +10584,7 @@
         <v>56</v>
       </c>
       <c r="E355" s="21" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="356" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10524,7 +10601,7 @@
         <v>71</v>
       </c>
       <c r="E356" s="21" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="357" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10541,7 +10618,7 @@
         <v>35</v>
       </c>
       <c r="E357" s="21" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="358" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10558,7 +10635,7 @@
         <v>8</v>
       </c>
       <c r="E358" s="21" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="359" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10575,7 +10652,7 @@
         <v>31</v>
       </c>
       <c r="E359" s="21" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="360" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10592,7 +10669,7 @@
         <v>29</v>
       </c>
       <c r="E360" s="21" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="361" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10609,7 +10686,7 @@
         <v>61</v>
       </c>
       <c r="E361" s="21" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="362" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10626,7 +10703,7 @@
         <v>15</v>
       </c>
       <c r="E362" s="21" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="363" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10643,7 +10720,7 @@
         <v>110</v>
       </c>
       <c r="E363" s="21" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="364" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10660,7 +10737,7 @@
         <v>21</v>
       </c>
       <c r="E364" s="21" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="365" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10677,7 +10754,7 @@
         <v>90</v>
       </c>
       <c r="E365" s="21" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="366" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10694,7 +10771,7 @@
         <v>45</v>
       </c>
       <c r="E366" s="21" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="367" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10711,7 +10788,7 @@
         <v>56</v>
       </c>
       <c r="E367" s="21" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="368" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10728,7 +10805,7 @@
         <v>71</v>
       </c>
       <c r="E368" s="21" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="369" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10745,7 +10822,7 @@
         <v>19</v>
       </c>
       <c r="E369" s="21" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="370" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10762,7 +10839,7 @@
         <v>28</v>
       </c>
       <c r="E370" s="21" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="371" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10779,7 +10856,7 @@
         <v>158</v>
       </c>
       <c r="E371" s="21" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="372" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10796,7 +10873,7 @@
         <v>67</v>
       </c>
       <c r="E372" s="21" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="373" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10813,7 +10890,7 @@
         <v>209</v>
       </c>
       <c r="E373" s="21" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="374" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10830,7 +10907,7 @@
         <v>42</v>
       </c>
       <c r="E374" s="21" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="375" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10847,7 +10924,7 @@
         <v>80</v>
       </c>
       <c r="E375" s="21" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="376" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10864,7 +10941,7 @@
         <v>38</v>
       </c>
       <c r="E376" s="21" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="377" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10881,7 +10958,7 @@
         <v>37</v>
       </c>
       <c r="E377" s="21" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="378" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10898,7 +10975,7 @@
         <v>26</v>
       </c>
       <c r="E378" s="21" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="379" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10915,7 +10992,7 @@
         <v>50</v>
       </c>
       <c r="E379" s="21" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="380" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10932,7 +11009,7 @@
         <v>100</v>
       </c>
       <c r="E380" s="21" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="381" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10949,7 +11026,7 @@
         <v>24</v>
       </c>
       <c r="E381" s="21" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="382" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10966,7 +11043,7 @@
         <v>48</v>
       </c>
       <c r="E382" s="21" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="383" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10983,7 +11060,7 @@
         <v>31</v>
       </c>
       <c r="E383" s="21" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="384" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11000,7 +11077,7 @@
         <v>7</v>
       </c>
       <c r="E384" s="21" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="385" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11017,7 +11094,7 @@
         <v>104</v>
       </c>
       <c r="E385" s="21" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="386" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11034,7 +11111,7 @@
         <v>44</v>
       </c>
       <c r="E386" s="21" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="387" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11051,7 +11128,7 @@
         <v>30</v>
       </c>
       <c r="E387" s="21" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="388" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11068,7 +11145,7 @@
         <v>63</v>
       </c>
       <c r="E388" s="21" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="389" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11085,7 +11162,7 @@
         <v>20</v>
       </c>
       <c r="E389" s="21" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="390" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11102,7 +11179,7 @@
         <v>21</v>
       </c>
       <c r="E390" s="21" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="391" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11119,7 +11196,7 @@
         <v>22</v>
       </c>
       <c r="E391" s="21" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="392" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11136,7 +11213,7 @@
         <v>57</v>
       </c>
       <c r="E392" s="21" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="393" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11153,7 +11230,7 @@
         <v>32</v>
       </c>
       <c r="E393" s="21" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="394" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11170,7 +11247,7 @@
         <v>141</v>
       </c>
       <c r="E394" s="21" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="395" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11187,7 +11264,7 @@
         <v>27</v>
       </c>
       <c r="E395" s="21" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="396" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11204,7 +11281,7 @@
         <v>46</v>
       </c>
       <c r="E396" s="21" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="397" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11221,7 +11298,7 @@
         <v>53</v>
       </c>
       <c r="E397" s="21" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="398" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11238,7 +11315,7 @@
         <v>23</v>
       </c>
       <c r="E398" s="22" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="399" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11255,7 +11332,7 @@
         <v>63</v>
       </c>
       <c r="E399" s="22" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="400" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11272,7 +11349,7 @@
         <v>30</v>
       </c>
       <c r="E400" s="22" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="401" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11289,7 +11366,7 @@
         <v>81</v>
       </c>
       <c r="E401" s="22" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="402" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11306,7 +11383,7 @@
         <v>12</v>
       </c>
       <c r="E402" s="22" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="403" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11323,7 +11400,7 @@
         <v>15</v>
       </c>
       <c r="E403" s="22" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="404" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11340,7 +11417,7 @@
         <v>46</v>
       </c>
       <c r="E404" s="22" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="405" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11357,7 +11434,7 @@
         <v>73</v>
       </c>
       <c r="E405" s="22" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="406" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11374,7 +11451,7 @@
         <v>49</v>
       </c>
       <c r="E406" s="22" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="407" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11391,7 +11468,7 @@
         <v>21</v>
       </c>
       <c r="E407" s="22" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="408" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11408,7 +11485,7 @@
         <v>11</v>
       </c>
       <c r="E408" s="22" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="409" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11425,7 +11502,7 @@
         <v>26</v>
       </c>
       <c r="E409" s="22" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="410" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11442,7 +11519,7 @@
         <v>10</v>
       </c>
       <c r="E410" s="22" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="411" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11459,7 +11536,7 @@
         <v>88</v>
       </c>
       <c r="E411" s="22" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="412" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11476,7 +11553,7 @@
         <v>40</v>
       </c>
       <c r="E412" s="22" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="413" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11493,7 +11570,7 @@
         <v>68</v>
       </c>
       <c r="E413" s="22" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="414" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11510,7 +11587,7 @@
         <v>40</v>
       </c>
       <c r="E414" s="22" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="415" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11527,7 +11604,7 @@
         <v>84</v>
       </c>
       <c r="E415" s="22" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="416" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11544,7 +11621,7 @@
         <v>77</v>
       </c>
       <c r="E416" s="22" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="417" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11561,7 +11638,7 @@
         <v>22</v>
       </c>
       <c r="E417" s="22" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="418" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11578,7 +11655,7 @@
         <v>44</v>
       </c>
       <c r="E418" s="22" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="419" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11595,7 +11672,7 @@
         <v>64</v>
       </c>
       <c r="E419" s="22" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="420" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11612,7 +11689,7 @@
         <v>63</v>
       </c>
       <c r="E420" s="22" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="421" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11629,7 +11706,7 @@
         <v>24</v>
       </c>
       <c r="E421" s="22" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="422" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11646,7 +11723,7 @@
         <v>107</v>
       </c>
       <c r="E422" s="22" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="423" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11663,7 +11740,7 @@
         <v>15</v>
       </c>
       <c r="E423" s="22" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="424" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11680,7 +11757,7 @@
         <v>82</v>
       </c>
       <c r="E424" s="22" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="425" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11697,7 +11774,7 @@
         <v>97</v>
       </c>
       <c r="E425" s="22" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="426" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11714,7 +11791,7 @@
         <v>40</v>
       </c>
       <c r="E426" s="22" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="427" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11731,7 +11808,7 @@
         <v>9</v>
       </c>
       <c r="E427" s="22" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="428" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11748,7 +11825,7 @@
         <v>45</v>
       </c>
       <c r="E428" s="22" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="429" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11765,7 +11842,7 @@
         <v>43</v>
       </c>
       <c r="E429" s="22" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="430" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11782,7 +11859,7 @@
         <v>87</v>
       </c>
       <c r="E430" s="22" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="431" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11799,7 +11876,7 @@
         <v>62</v>
       </c>
       <c r="E431" s="22" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="432" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11816,7 +11893,7 @@
         <v>6</v>
       </c>
       <c r="E432" s="22" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="433" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11833,7 +11910,7 @@
         <v>34</v>
       </c>
       <c r="E433" s="22" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="434" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11850,7 +11927,7 @@
         <v>116</v>
       </c>
       <c r="E434" s="22" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="435" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11867,7 +11944,7 @@
         <v>51</v>
       </c>
       <c r="E435" s="22" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="436" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11884,7 +11961,7 @@
         <v>52</v>
       </c>
       <c r="E436" s="22" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="437" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11901,7 +11978,7 @@
         <v>29</v>
       </c>
       <c r="E437" s="22" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="438" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11918,7 +11995,7 @@
         <v>48</v>
       </c>
       <c r="E438" s="22" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="439" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11935,7 +12012,7 @@
         <v>53</v>
       </c>
       <c r="E439" s="22" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="440" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11952,7 +12029,7 @@
         <v>31</v>
       </c>
       <c r="E440" s="22" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="441" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11969,7 +12046,7 @@
         <v>206</v>
       </c>
       <c r="E441" s="22" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="442" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11986,7 +12063,7 @@
         <v>11</v>
       </c>
       <c r="E442" s="22" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="443" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12003,7 +12080,7 @@
         <v>35</v>
       </c>
       <c r="E443" s="22" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="444" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12020,7 +12097,7 @@
         <v>27</v>
       </c>
       <c r="E444" s="22" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="445" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12037,7 +12114,7 @@
         <v>32</v>
       </c>
       <c r="E445" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="446" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12054,7 +12131,7 @@
         <v>124</v>
       </c>
       <c r="E446" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="447" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12105,7 +12182,7 @@
         <v>85</v>
       </c>
       <c r="E449" s="23" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="450" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12122,7 +12199,7 @@
         <v>64</v>
       </c>
       <c r="E450" s="23" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="451" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12139,7 +12216,7 @@
         <v>63</v>
       </c>
       <c r="E451" s="23" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="452" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12156,7 +12233,7 @@
         <v>91</v>
       </c>
       <c r="E452" s="23" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="453" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12173,7 +12250,7 @@
         <v>12</v>
       </c>
       <c r="E453" s="23" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="454" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12190,7 +12267,7 @@
         <v>23</v>
       </c>
       <c r="E454" s="23" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="455" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12207,7 +12284,7 @@
         <v>77</v>
       </c>
       <c r="E455" s="23" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="456" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12224,7 +12301,7 @@
         <v>47</v>
       </c>
       <c r="E456" s="23" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="457" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12241,7 +12318,7 @@
         <v>55</v>
       </c>
       <c r="E457" s="23" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="458" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12258,7 +12335,7 @@
         <v>30</v>
       </c>
       <c r="E458" s="23" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="459" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12275,7 +12352,7 @@
         <v>16</v>
       </c>
       <c r="E459" s="23" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="460" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12292,7 +12369,7 @@
         <v>44</v>
       </c>
       <c r="E460" s="23" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="461" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12309,7 +12386,7 @@
         <v>46</v>
       </c>
       <c r="E461" s="23" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="462" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12326,7 +12403,7 @@
         <v>62</v>
       </c>
       <c r="E462" s="23" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="463" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12343,7 +12420,7 @@
         <v>107</v>
       </c>
       <c r="E463" s="23" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="464" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12360,7 +12437,7 @@
         <v>156</v>
       </c>
       <c r="E464" s="23" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="465" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12377,7 +12454,7 @@
         <v>52</v>
       </c>
       <c r="E465" s="23" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="466" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12394,7 +12471,7 @@
         <v>33</v>
       </c>
       <c r="E466" s="23" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="467" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12411,7 +12488,7 @@
         <v>73</v>
       </c>
       <c r="E467" s="23" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="468" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12428,7 +12505,7 @@
         <v>57</v>
       </c>
       <c r="E468" s="23" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="469" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12445,7 +12522,7 @@
         <v>45</v>
       </c>
       <c r="E469" s="23" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="470" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12462,7 +12539,7 @@
         <v>89</v>
       </c>
       <c r="E470" s="23" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="471" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12479,7 +12556,7 @@
         <v>22</v>
       </c>
       <c r="E471" s="23" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="472" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12496,7 +12573,7 @@
         <v>142</v>
       </c>
       <c r="E472" s="23" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="473" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12513,7 +12590,7 @@
         <v>101</v>
       </c>
       <c r="E473" s="23" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="474" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12530,7 +12607,7 @@
         <v>44</v>
       </c>
       <c r="E474" s="23" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="475" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12547,7 +12624,7 @@
         <v>18</v>
       </c>
       <c r="E475" s="23" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="476" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12564,7 +12641,7 @@
         <v>89</v>
       </c>
       <c r="E476" s="23" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="477" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12581,7 +12658,7 @@
         <v>62</v>
       </c>
       <c r="E477" s="23" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="478" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12598,12 +12675,12 @@
         <v>115</v>
       </c>
       <c r="E478" s="23" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="479" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A479" s="12" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B479" s="13">
         <v>357</v>
@@ -12615,12 +12692,12 @@
         <v>6</v>
       </c>
       <c r="E479" s="24" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="480" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A480" s="12" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B480" s="13">
         <v>332</v>
@@ -12632,12 +12709,12 @@
         <v>39</v>
       </c>
       <c r="E480" s="24" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="481" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A481" s="12" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B481" s="13">
         <v>459</v>
@@ -12649,12 +12726,12 @@
         <v>78</v>
       </c>
       <c r="E481" s="24" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="482" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A482" s="12" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B482" s="13">
         <v>437</v>
@@ -12666,12 +12743,12 @@
         <v>76</v>
       </c>
       <c r="E482" s="24" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="483" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A483" s="12" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B483" s="13">
         <v>359</v>
@@ -12683,12 +12760,12 @@
         <v>19</v>
       </c>
       <c r="E483" s="24" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="484" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A484" s="12" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B484" s="13">
         <v>464</v>
@@ -12700,12 +12777,12 @@
         <v>93</v>
       </c>
       <c r="E484" s="24" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="485" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A485" s="12" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B485" s="13">
         <v>340</v>
@@ -12717,12 +12794,12 @@
         <v>4</v>
       </c>
       <c r="E485" s="24" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="486" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A486" s="12" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B486" s="13">
         <v>631</v>
@@ -12734,12 +12811,12 @@
         <v>18</v>
       </c>
       <c r="E486" s="24" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="487" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A487" s="12" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B487" s="13">
         <v>544</v>
@@ -12751,12 +12828,12 @@
         <v>63</v>
       </c>
       <c r="E487" s="24" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="488" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A488" s="12" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B488" s="13">
         <v>536</v>
@@ -12768,12 +12845,12 @@
         <v>33</v>
       </c>
       <c r="E488" s="24" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="489" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A489" s="12" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B489" s="14">
         <v>535</v>
@@ -12785,12 +12862,12 @@
         <v>92</v>
       </c>
       <c r="E489" s="24" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="490" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A490" s="12" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B490" s="15">
         <v>561</v>
@@ -12802,12 +12879,12 @@
         <v>41</v>
       </c>
       <c r="E490" s="24" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="491" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A491" s="12" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B491" s="13">
         <v>628</v>
@@ -12819,12 +12896,12 @@
         <v>32</v>
       </c>
       <c r="E491" s="24" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="492" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A492" s="12" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B492" s="15">
         <v>447</v>
@@ -12836,12 +12913,12 @@
         <v>50</v>
       </c>
       <c r="E492" s="24" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="493" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A493" s="12" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B493" s="13">
         <v>692</v>
@@ -12853,12 +12930,12 @@
         <v>79</v>
       </c>
       <c r="E493" s="24" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="494" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A494" s="12" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B494" s="13">
         <v>690</v>
@@ -12870,12 +12947,12 @@
         <v>95</v>
       </c>
       <c r="E494" s="24" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="495" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A495" s="12" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B495" s="13">
         <v>838</v>
@@ -12887,12 +12964,12 @@
         <v>50</v>
       </c>
       <c r="E495" s="24" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="496" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A496" s="12" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B496" s="13">
         <v>651</v>
@@ -12904,12 +12981,12 @@
         <v>98</v>
       </c>
       <c r="E496" s="24" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="497" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A497" s="12" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B497" s="13">
         <v>592</v>
@@ -12921,12 +12998,12 @@
         <v>50</v>
       </c>
       <c r="E497" s="24" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="498" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A498" s="12" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B498" s="13">
         <v>631</v>
@@ -12938,12 +13015,12 @@
         <v>81</v>
       </c>
       <c r="E498" s="24" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="499" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A499" s="12" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B499" s="13">
         <v>640</v>
@@ -12955,12 +13032,12 @@
         <v>48</v>
       </c>
       <c r="E499" s="24" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="500" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A500" s="12" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B500" s="13">
         <v>844</v>
@@ -12972,12 +13049,12 @@
         <v>10</v>
       </c>
       <c r="E500" s="24" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="501" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A501" s="12" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B501" s="13">
         <v>661</v>
@@ -12989,12 +13066,12 @@
         <v>68</v>
       </c>
       <c r="E501" s="24" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="502" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A502" s="12" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B502" s="13">
         <v>774</v>
@@ -13006,12 +13083,12 @@
         <v>35</v>
       </c>
       <c r="E502" s="24" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="503" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A503" s="12" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B503" s="13">
         <v>831</v>
@@ -13023,12 +13100,12 @@
         <v>84</v>
       </c>
       <c r="E503" s="24" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="504" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A504" s="12" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B504" s="13">
         <v>700</v>
@@ -13040,12 +13117,12 @@
         <v>50</v>
       </c>
       <c r="E504" s="24" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="505" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A505" s="12" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B505" s="13">
         <v>1006</v>
@@ -13057,12 +13134,12 @@
         <v>53</v>
       </c>
       <c r="E505" s="24" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="506" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A506" s="12" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B506" s="13">
         <v>936</v>
@@ -13074,12 +13151,12 @@
         <v>51</v>
       </c>
       <c r="E506" s="24" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="507" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A507" s="12" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B507" s="13">
         <v>812</v>
@@ -13091,12 +13168,12 @@
         <v>76</v>
       </c>
       <c r="E507" s="24" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="508" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A508" s="12" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B508" s="13">
         <v>799</v>
@@ -13108,12 +13185,12 @@
         <v>163</v>
       </c>
       <c r="E508" s="24" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="509" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A509" s="12" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B509" s="13">
         <v>929</v>
@@ -13125,12 +13202,12 @@
         <v>67</v>
       </c>
       <c r="E509" s="24" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="510" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A510" s="12" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B510" s="13">
         <v>859</v>
@@ -13142,12 +13219,12 @@
         <v>37</v>
       </c>
       <c r="E510" s="24" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="511" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A511" s="12" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B511" s="13">
         <v>2054</v>
@@ -13159,12 +13236,12 @@
         <v>86</v>
       </c>
       <c r="E511" s="24" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="512" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A512" s="12" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B512" s="13">
         <v>730</v>
@@ -13176,12 +13253,12 @@
         <v>10</v>
       </c>
       <c r="E512" s="24" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="513" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A513" s="12" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B513" s="13">
         <v>879</v>
@@ -13193,12 +13270,12 @@
         <v>75</v>
       </c>
       <c r="E513" s="24" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="514" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A514" s="12" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B514" s="13">
         <v>1719</v>
@@ -13210,12 +13287,12 @@
         <v>51</v>
       </c>
       <c r="E514" s="24" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="515" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A515" s="16" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B515" s="17">
         <v>391</v>
@@ -13227,12 +13304,12 @@
         <v>5</v>
       </c>
       <c r="E515" s="25" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="516" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A516" s="16" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B516" s="17">
         <v>489</v>
@@ -13244,12 +13321,12 @@
         <v>4</v>
       </c>
       <c r="E516" s="25" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="517" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A517" s="16" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B517" s="17">
         <v>385</v>
@@ -13261,12 +13338,12 @@
         <v>26</v>
       </c>
       <c r="E517" s="25" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="518" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A518" s="16" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B518" s="17">
         <v>459</v>
@@ -13278,12 +13355,12 @@
         <v>41</v>
       </c>
       <c r="E518" s="25" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="519" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A519" s="16" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B519" s="17">
         <v>426</v>
@@ -13295,12 +13372,12 @@
         <v>40</v>
       </c>
       <c r="E519" s="25" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="520" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A520" s="16" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B520" s="17">
         <v>391</v>
@@ -13312,12 +13389,12 @@
         <v>4</v>
       </c>
       <c r="E520" s="25" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="521" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A521" s="16" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B521" s="17">
         <v>461</v>
@@ -13329,12 +13406,12 @@
         <v>216</v>
       </c>
       <c r="E521" s="25" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="522" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A522" s="16" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B522" s="17">
         <v>596</v>
@@ -13346,12 +13423,12 @@
         <v>0</v>
       </c>
       <c r="E522" s="25" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="523" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A523" s="16" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B523" s="17">
         <v>504</v>
@@ -13363,12 +13440,12 @@
         <v>55</v>
       </c>
       <c r="E523" s="25" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="524" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A524" s="16" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B524" s="17">
         <v>618</v>
@@ -13380,12 +13457,12 @@
         <v>60</v>
       </c>
       <c r="E524" s="25" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="525" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A525" s="16" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B525" s="17">
         <v>406</v>
@@ -13397,12 +13474,12 @@
         <v>30</v>
       </c>
       <c r="E525" s="25" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="526" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A526" s="16" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B526" s="17">
         <v>612</v>
@@ -13414,12 +13491,12 @@
         <v>69</v>
       </c>
       <c r="E526" s="25" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="527" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A527" s="16" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B527" s="17">
         <v>628</v>
@@ -13431,12 +13508,12 @@
         <v>29</v>
       </c>
       <c r="E527" s="25" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="528" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A528" s="16" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B528" s="17">
         <v>592</v>
@@ -13448,12 +13525,12 @@
         <v>47</v>
       </c>
       <c r="E528" s="25" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="529" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A529" s="16" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B529" s="17">
         <v>688</v>
@@ -13465,12 +13542,12 @@
         <v>6</v>
       </c>
       <c r="E529" s="25" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="530" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A530" s="16" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B530" s="17">
         <v>622</v>
@@ -13482,12 +13559,12 @@
         <v>4</v>
       </c>
       <c r="E530" s="25" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="531" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A531" s="16" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B531" s="17">
         <v>793</v>
@@ -13499,12 +13576,12 @@
         <v>114</v>
       </c>
       <c r="E531" s="25" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="532" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A532" s="16" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B532" s="17">
         <v>830</v>
@@ -13516,12 +13593,12 @@
         <v>94</v>
       </c>
       <c r="E532" s="25" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="533" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A533" s="16" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B533" s="17">
         <v>592</v>
@@ -13533,12 +13610,12 @@
         <v>20</v>
       </c>
       <c r="E533" s="25" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="534" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A534" s="16" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B534" s="17">
         <v>811</v>
@@ -13550,12 +13627,12 @@
         <v>45</v>
       </c>
       <c r="E534" s="25" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="535" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A535" s="16" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B535" s="17">
         <v>858</v>
@@ -13567,12 +13644,12 @@
         <v>42</v>
       </c>
       <c r="E535" s="25" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="536" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A536" s="16" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B536" s="17">
         <v>851</v>
@@ -13584,12 +13661,12 @@
         <v>33</v>
       </c>
       <c r="E536" s="25" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="537" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A537" s="18" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B537" s="19">
         <v>369</v>
@@ -13601,12 +13678,12 @@
         <v>58</v>
       </c>
       <c r="E537" s="26" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="538" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A538" s="18" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B538" s="19">
         <v>373</v>
@@ -13618,12 +13695,12 @@
         <v>12</v>
       </c>
       <c r="E538" s="26" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="539" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A539" s="18" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B539" s="19">
         <v>391</v>
@@ -13635,12 +13712,12 @@
         <v>51</v>
       </c>
       <c r="E539" s="26" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="540" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A540" s="18" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B540" s="19">
         <v>421</v>
@@ -13652,12 +13729,12 @@
         <v>47</v>
       </c>
       <c r="E540" s="26" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="541" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A541" s="18" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B541" s="19">
         <v>365</v>
@@ -13669,12 +13746,12 @@
         <v>25</v>
       </c>
       <c r="E541" s="26" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="542" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A542" s="18" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B542" s="19">
         <v>427</v>
@@ -13686,12 +13763,12 @@
         <v>36</v>
       </c>
       <c r="E542" s="26" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="543" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A543" s="18" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B543" s="19">
         <v>472</v>
@@ -13703,12 +13780,12 @@
         <v>73</v>
       </c>
       <c r="E543" s="26" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="544" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A544" s="18" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B544" s="19">
         <v>449</v>
@@ -13720,12 +13797,12 @@
         <v>27</v>
       </c>
       <c r="E544" s="26" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="545" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A545" s="18" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B545" s="19">
         <v>534</v>
@@ -13737,12 +13814,12 @@
         <v>68</v>
       </c>
       <c r="E545" s="26" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="546" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A546" s="18" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B546" s="19">
         <v>495</v>
@@ -13754,12 +13831,12 @@
         <v>51</v>
       </c>
       <c r="E546" s="26" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="547" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A547" s="18" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B547" s="19">
         <v>560</v>
@@ -13771,12 +13848,12 @@
         <v>7</v>
       </c>
       <c r="E547" s="26" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="548" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A548" s="18" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B548" s="19">
         <v>525</v>
@@ -13788,12 +13865,12 @@
         <v>106</v>
       </c>
       <c r="E548" s="26" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="549" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A549" s="18" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B549" s="19">
         <v>641</v>
@@ -13805,12 +13882,12 @@
         <v>68</v>
       </c>
       <c r="E549" s="26" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="550" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A550" s="18" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B550" s="19">
         <v>513</v>
@@ -13822,12 +13899,12 @@
         <v>71</v>
       </c>
       <c r="E550" s="26" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="551" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A551" s="18" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B551" s="19">
         <v>564</v>
@@ -13839,12 +13916,12 @@
         <v>26</v>
       </c>
       <c r="E551" s="26" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="552" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A552" s="18" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B552" s="19">
         <v>552</v>
@@ -13856,12 +13933,12 @@
         <v>20</v>
       </c>
       <c r="E552" s="26" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="553" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A553" s="18" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B553" s="19">
         <v>820</v>
@@ -13873,7 +13950,7 @@
         <v>25</v>
       </c>
       <c r="E553" s="26" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="554" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13890,12 +13967,12 @@
         <v>62</v>
       </c>
       <c r="E554" s="26" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="555" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A555" s="18" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B555" s="19">
         <v>727</v>
@@ -13907,12 +13984,12 @@
         <v>89</v>
       </c>
       <c r="E555" s="26" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="556" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A556" s="18" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B556" s="19">
         <v>533</v>
@@ -13924,12 +14001,12 @@
         <v>10</v>
       </c>
       <c r="E556" s="26" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="557" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A557" s="18" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B557" s="19">
         <v>690</v>
@@ -13941,12 +14018,12 @@
         <v>87</v>
       </c>
       <c r="E557" s="26" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="558" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A558" s="18" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B558" s="19">
         <v>700</v>
@@ -13958,12 +14035,12 @@
         <v>55</v>
       </c>
       <c r="E558" s="26" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="559" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A559" s="18" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B559" s="19">
         <v>986</v>
@@ -13975,7 +14052,7 @@
         <v>84</v>
       </c>
       <c r="E559" s="26" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="560" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13992,12 +14069,12 @@
         <v>153</v>
       </c>
       <c r="E560" s="26" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="561" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A561" s="18" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B561" s="19">
         <v>790</v>
@@ -14009,12 +14086,12 @@
         <v>124</v>
       </c>
       <c r="E561" s="26" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="562" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A562" s="18" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B562" s="19">
         <v>717</v>
@@ -14026,12 +14103,12 @@
         <v>35</v>
       </c>
       <c r="E562" s="26" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="563" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A563" s="18" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B563" s="19">
         <v>831</v>
@@ -14043,12 +14120,12 @@
         <v>70</v>
       </c>
       <c r="E563" s="26" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="564" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A564" s="18" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B564" s="19">
         <v>892</v>
@@ -14060,12 +14137,12 @@
         <v>75</v>
       </c>
       <c r="E564" s="26" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="565" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A565" s="18" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B565" s="19">
         <v>763</v>
@@ -14077,12 +14154,12 @@
         <v>91</v>
       </c>
       <c r="E565" s="26" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="566" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A566" s="18" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B566" s="19">
         <v>827</v>
@@ -14094,12 +14171,12 @@
         <v>38</v>
       </c>
       <c r="E566" s="26" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="567" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A567" s="18" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B567" s="19">
         <v>887</v>
@@ -14111,12 +14188,12 @@
         <v>26</v>
       </c>
       <c r="E567" s="26" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="568" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A568" s="18" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B568" s="19">
         <v>1047</v>
@@ -14128,12 +14205,12 @@
         <v>0</v>
       </c>
       <c r="E568" s="26" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="569" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A569" s="18" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B569" s="19">
         <v>901</v>
@@ -14145,12 +14222,12 @@
         <v>0</v>
       </c>
       <c r="E569" s="26" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="570" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A570" s="18" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B570" s="19">
         <v>1021</v>
@@ -14162,12 +14239,12 @@
         <v>26</v>
       </c>
       <c r="E570" s="26" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="571" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A571" s="18" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B571" s="19">
         <v>970</v>
@@ -14179,12 +14256,12 @@
         <v>26</v>
       </c>
       <c r="E571" s="26" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="572" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A572" s="18" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B572" s="19">
         <v>777</v>
@@ -14196,12 +14273,12 @@
         <v>28</v>
       </c>
       <c r="E572" s="26" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="573" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A573" s="28" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B573" s="29">
         <v>369</v>
@@ -14213,12 +14290,12 @@
         <v>46</v>
       </c>
       <c r="E573" s="28" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="574" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A574" s="28" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B574" s="29">
         <v>333</v>
@@ -14230,12 +14307,12 @@
         <v>33</v>
       </c>
       <c r="E574" s="28" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="575" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A575" s="28" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B575" s="29">
         <v>365</v>
@@ -14247,12 +14324,12 @@
         <v>43</v>
       </c>
       <c r="E575" s="28" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="576" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A576" s="28" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B576" s="29">
         <v>362</v>
@@ -14264,12 +14341,12 @@
         <v>18</v>
       </c>
       <c r="E576" s="28" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="577" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A577" s="28" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B577" s="29">
         <v>454</v>
@@ -14281,12 +14358,12 @@
         <v>40</v>
       </c>
       <c r="E577" s="28" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="578" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A578" s="28" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B578" s="29">
         <v>436</v>
@@ -14298,12 +14375,12 @@
         <v>77</v>
       </c>
       <c r="E578" s="28" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="579" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A579" s="28" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B579" s="29">
         <v>536</v>
@@ -14315,12 +14392,12 @@
         <v>30</v>
       </c>
       <c r="E579" s="28" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="580" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A580" s="28" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B580" s="29">
         <v>579</v>
@@ -14332,12 +14409,12 @@
         <v>21</v>
       </c>
       <c r="E580" s="28" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="581" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A581" s="28" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B581" s="29">
         <v>470</v>
@@ -14349,12 +14426,12 @@
         <v>37</v>
       </c>
       <c r="E581" s="28" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="582" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A582" s="28" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B582" s="29">
         <v>475</v>
@@ -14366,12 +14443,12 @@
         <v>49</v>
       </c>
       <c r="E582" s="28" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="583" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A583" s="28" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B583" s="29">
         <v>605</v>
@@ -14383,12 +14460,12 @@
         <v>80</v>
       </c>
       <c r="E583" s="28" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="584" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A584" s="28" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B584" s="29">
         <v>551</v>
@@ -14400,12 +14477,12 @@
         <v>8</v>
       </c>
       <c r="E584" s="28" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="585" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A585" s="28" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B585" s="29">
         <v>604</v>
@@ -14417,12 +14494,12 @@
         <v>3</v>
       </c>
       <c r="E585" s="28" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="586" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A586" s="28" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B586" s="29">
         <v>510</v>
@@ -14434,12 +14511,12 @@
         <v>46</v>
       </c>
       <c r="E586" s="28" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="587" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A587" s="28" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B587" s="29">
         <v>558</v>
@@ -14451,12 +14528,12 @@
         <v>43</v>
       </c>
       <c r="E587" s="28" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="588" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A588" s="28" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B588" s="29">
         <v>674</v>
@@ -14468,12 +14545,12 @@
         <v>49</v>
       </c>
       <c r="E588" s="28" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="589" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A589" s="28" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B589" s="29">
         <v>783</v>
@@ -14485,12 +14562,12 @@
         <v>94</v>
       </c>
       <c r="E589" s="28" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="590" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A590" s="28" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B590" s="29">
         <v>702</v>
@@ -14502,12 +14579,12 @@
         <v>39</v>
       </c>
       <c r="E590" s="28" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="591" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A591" s="28" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B591" s="29">
         <v>633</v>
@@ -14519,12 +14596,12 @@
         <v>57</v>
       </c>
       <c r="E591" s="28" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="592" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A592" s="28" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B592" s="29">
         <v>805</v>
@@ -14536,12 +14613,12 @@
         <v>34</v>
       </c>
       <c r="E592" s="28" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="593" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A593" s="28" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B593" s="29">
         <v>833</v>
@@ -14553,12 +14630,12 @@
         <v>75</v>
       </c>
       <c r="E593" s="28" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="594" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A594" s="28" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B594" s="29">
         <v>607</v>
@@ -14570,12 +14647,12 @@
         <v>35</v>
       </c>
       <c r="E594" s="28" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="595" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A595" s="28" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B595" s="29">
         <v>826</v>
@@ -14587,12 +14664,12 @@
         <v>14</v>
       </c>
       <c r="E595" s="28" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="596" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A596" s="28" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B596" s="29">
         <v>816</v>
@@ -14604,12 +14681,12 @@
         <v>80</v>
       </c>
       <c r="E596" s="28" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="597" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A597" s="28" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B597" s="29">
         <v>1601</v>
@@ -14621,12 +14698,12 @@
         <v>48</v>
       </c>
       <c r="E597" s="28" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="598" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A598" s="28" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B598" s="29">
         <v>932</v>
@@ -14638,12 +14715,12 @@
         <v>109</v>
       </c>
       <c r="E598" s="28" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="599" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A599" s="28" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B599" s="29">
         <v>741</v>
@@ -14655,12 +14732,12 @@
         <v>103</v>
       </c>
       <c r="E599" s="28" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="600" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A600" s="28" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B600" s="29">
         <v>1029</v>
@@ -14672,12 +14749,12 @@
         <v>81</v>
       </c>
       <c r="E600" s="28" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="601" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A601" s="28" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B601" s="29">
         <v>880</v>
@@ -14689,12 +14766,12 @@
         <v>47</v>
       </c>
       <c r="E601" s="28" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="602" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A602" s="28" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B602" s="29">
         <v>922</v>
@@ -14706,12 +14783,12 @@
         <v>33</v>
       </c>
       <c r="E602" s="28" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="603" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A603" s="28" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B603" s="29">
         <v>777</v>
@@ -14723,12 +14800,12 @@
         <v>98</v>
       </c>
       <c r="E603" s="28" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="604" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A604" s="28" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B604" s="29">
         <v>1095</v>
@@ -14740,12 +14817,12 @@
         <v>138</v>
       </c>
       <c r="E604" s="28" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="605" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A605" s="28" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B605" s="29">
         <v>1110</v>
@@ -14757,12 +14834,12 @@
         <v>88</v>
       </c>
       <c r="E605" s="28" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="606" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A606" s="28" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B606" s="29">
         <v>852</v>
@@ -14774,12 +14851,12 @@
         <v>7</v>
       </c>
       <c r="E606" s="28" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="607" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A607" s="30" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B607" s="31">
         <v>507</v>
@@ -14791,12 +14868,12 @@
         <v>74</v>
       </c>
       <c r="E607" s="34" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="608" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A608" s="30" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B608" s="31">
         <v>565</v>
@@ -14808,12 +14885,12 @@
         <v>37</v>
       </c>
       <c r="E608" s="34" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="609" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A609" s="30" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B609" s="31">
         <v>653</v>
@@ -14825,12 +14902,12 @@
         <v>49</v>
       </c>
       <c r="E609" s="34" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="610" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A610" s="30" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B610" s="31">
         <v>895</v>
@@ -14842,12 +14919,12 @@
         <v>42</v>
       </c>
       <c r="E610" s="34" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="611" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A611" s="30" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B611" s="31">
         <v>659</v>
@@ -14859,12 +14936,12 @@
         <v>118</v>
       </c>
       <c r="E611" s="34" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="612" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A612" s="30" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B612" s="31">
         <v>1269</v>
@@ -14876,12 +14953,12 @@
         <v>101</v>
       </c>
       <c r="E612" s="34" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="613" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A613" s="32" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B613" s="33">
         <v>538</v>
@@ -14893,12 +14970,12 @@
         <v>65</v>
       </c>
       <c r="E613" s="35" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="614" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A614" s="32" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B614" s="33">
         <v>487</v>
@@ -14910,12 +14987,12 @@
         <v>33</v>
       </c>
       <c r="E614" s="35" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="615" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A615" s="32" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B615" s="33">
         <v>756</v>
@@ -14927,12 +15004,12 @@
         <v>39</v>
       </c>
       <c r="E615" s="35" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="616" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A616" s="32" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B616" s="33">
         <v>809</v>
@@ -14944,12 +15021,12 @@
         <v>68</v>
       </c>
       <c r="E616" s="35" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="617" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A617" s="32" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B617" s="33">
         <v>1051</v>
@@ -14961,12 +15038,12 @@
         <v>44</v>
       </c>
       <c r="E617" s="35" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="618" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A618" s="32" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B618" s="33">
         <v>951</v>
@@ -14978,12 +15055,12 @@
         <v>56</v>
       </c>
       <c r="E618" s="35" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="619" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A619" s="36" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B619" s="37">
         <v>486</v>
@@ -14994,13 +15071,13 @@
       <c r="D619" s="37">
         <v>101</v>
       </c>
-      <c r="E619" s="40" t="s">
-        <v>1241</v>
+      <c r="E619" s="38" t="s">
+        <v>1240</v>
       </c>
     </row>
     <row r="620" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A620" s="36" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B620" s="37">
         <v>488</v>
@@ -15011,13 +15088,13 @@
       <c r="D620" s="37">
         <v>161</v>
       </c>
-      <c r="E620" s="40" t="s">
-        <v>1242</v>
+      <c r="E620" s="38" t="s">
+        <v>1241</v>
       </c>
     </row>
     <row r="621" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A621" s="36" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B621" s="37">
         <v>669</v>
@@ -15028,13 +15105,13 @@
       <c r="D621" s="37">
         <v>64</v>
       </c>
-      <c r="E621" s="40" t="s">
-        <v>1243</v>
+      <c r="E621" s="38" t="s">
+        <v>1242</v>
       </c>
     </row>
     <row r="622" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A622" s="36" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B622" s="37">
         <v>616</v>
@@ -15045,13 +15122,13 @@
       <c r="D622" s="37">
         <v>30</v>
       </c>
-      <c r="E622" s="40" t="s">
-        <v>1244</v>
+      <c r="E622" s="38" t="s">
+        <v>1243</v>
       </c>
     </row>
     <row r="623" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A623" s="36" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B623" s="37">
         <v>819</v>
@@ -15062,13 +15139,13 @@
       <c r="D623" s="37">
         <v>154</v>
       </c>
-      <c r="E623" s="40" t="s">
-        <v>1245</v>
+      <c r="E623" s="38" t="s">
+        <v>1244</v>
       </c>
     </row>
     <row r="624" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A624" s="36" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B624" s="37">
         <v>810</v>
@@ -15079,69 +15156,162 @@
       <c r="D624" s="37">
         <v>45</v>
       </c>
-      <c r="E624" s="40" t="s">
+      <c r="E624" s="38" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A625" s="39" t="s">
         <v>1246</v>
       </c>
-    </row>
-    <row r="625" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A625" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B625" s="5"/>
-      <c r="C625" s="5"/>
-      <c r="D625" s="5"/>
-    </row>
-    <row r="626" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A626" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B626" s="5"/>
-      <c r="C626" s="5"/>
-      <c r="D626" s="5"/>
-    </row>
-    <row r="627" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A627" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B627" s="5"/>
-      <c r="C627" s="5"/>
-      <c r="D627" s="5"/>
-    </row>
-    <row r="628" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A628" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B628" s="5"/>
-      <c r="C628" s="5"/>
-      <c r="D628" s="5"/>
-    </row>
-    <row r="629" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A629" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B629" s="5"/>
-      <c r="C629" s="5"/>
-      <c r="D629" s="5"/>
-    </row>
-    <row r="630" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A630" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B630" s="5"/>
-      <c r="C630" s="5"/>
-      <c r="D630" s="5"/>
-    </row>
-    <row r="631" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A631" s="38"/>
-      <c r="B631" s="39"/>
-      <c r="C631" s="39"/>
-      <c r="D631" s="39"/>
-    </row>
-    <row r="632" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A632" s="38"/>
-      <c r="B632" s="39"/>
-      <c r="C632" s="39"/>
-      <c r="D632" s="39"/>
+      <c r="B625" s="40">
+        <v>351</v>
+      </c>
+      <c r="C625" s="40">
+        <v>0</v>
+      </c>
+      <c r="D625" s="40">
+        <v>108</v>
+      </c>
+      <c r="E625" s="39" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A626" s="39" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B626" s="40">
+        <v>385</v>
+      </c>
+      <c r="C626" s="40">
+        <v>8</v>
+      </c>
+      <c r="D626" s="40">
+        <v>44</v>
+      </c>
+      <c r="E626" s="39" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A627" s="39" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B627" s="40">
+        <v>438</v>
+      </c>
+      <c r="C627" s="40">
+        <v>0</v>
+      </c>
+      <c r="D627" s="40">
+        <v>11</v>
+      </c>
+      <c r="E627" s="39" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A628" s="39" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B628" s="40">
+        <v>470</v>
+      </c>
+      <c r="C628" s="40">
+        <v>2</v>
+      </c>
+      <c r="D628" s="40">
+        <v>101</v>
+      </c>
+      <c r="E628" s="39" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A629" s="39" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B629" s="40">
+        <v>583</v>
+      </c>
+      <c r="C629" s="40">
+        <v>3</v>
+      </c>
+      <c r="D629" s="40">
+        <v>45</v>
+      </c>
+      <c r="E629" s="39" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A630" s="39" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B630" s="40">
+        <v>748</v>
+      </c>
+      <c r="C630" s="40">
+        <v>1</v>
+      </c>
+      <c r="D630" s="40">
+        <v>40</v>
+      </c>
+      <c r="E630" s="39" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A631" s="41" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B631" s="42">
+        <v>772</v>
+      </c>
+      <c r="C631" s="42">
+        <v>2</v>
+      </c>
+      <c r="D631" s="42">
+        <v>74</v>
+      </c>
+      <c r="E631" s="41" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A632" s="41" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B632" s="42">
+        <v>995</v>
+      </c>
+      <c r="C632" s="42">
+        <v>0</v>
+      </c>
+      <c r="D632" s="42">
+        <v>51</v>
+      </c>
+      <c r="E632" s="41" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A633" s="43" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B633" s="44">
+        <v>11830</v>
+      </c>
+      <c r="C633" s="44">
+        <v>60</v>
+      </c>
+      <c r="D633" s="44">
+        <v>1058</v>
+      </c>
+      <c r="E633" s="43" t="s">
+        <v>1263</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
